--- a/Financial Services/BlackRock.xlsx
+++ b/Financial Services/BlackRock.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A98A88B-D346-8F48-9A0B-78AA12A626A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7064CEF-6D43-374A-B363-A29A55E1BD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,7 +561,7 @@
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1012,6 +1012,7 @@
     <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1042,7 +1043,6 @@
     <xf numFmtId="9" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2422,37 +2422,37 @@
     <v>Powered by Refinitiv</v>
     <v>785.65</v>
     <v>503.12360000000001</v>
-    <v>1.2902</v>
-    <v>0.36</v>
-    <v>5.4870000000000006E-4</v>
-    <v>-0.1</v>
-    <v>-1.5230000000000002E-4</v>
+    <v>1.2894000000000001</v>
+    <v>5.52</v>
+    <v>8.4270000000000005E-3</v>
+    <v>2.98</v>
+    <v>4.5119999999999995E-3</v>
     <v>USD</v>
     <v>BlackRock, Inc. is an investment management company. The Company provides a range of investment management and technology services to institutional and retail clients. Its diverse platform of alpha-seeking active, index and cash management investment strategies across asset classes enables the Company to tailor investment outcomes and asset allocation solutions for clients. The Company's product offerings include single- and multi-asset portfolios investing in equities, fixed income, alternatives and money market instruments. Its products are offered directly and through intermediaries in a range of vehicles, including open-end and closed-end mutual funds, iShares exchange-traded funds (ETFs), separate accounts, collective investment funds and other pooled investment vehicles. The Company also offers technology services, including the investment and risk management technology platform, Aladdin, Aladdin Wealth, eFront, and Cachematrix, as well as advisory services and solutions.</v>
-    <v>19800</v>
+    <v>19500</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>50 Hudson Yards, NEW YORK, NY, 10001 US</v>
-    <v>659.06</v>
+    <v>663.12</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>45022.991158888282</v>
+    <v>45071.985360821091</v>
     <v>0</v>
-    <v>653.98500000000001</v>
-    <v>98615160000</v>
+    <v>653.4</v>
+    <v>98094540000</v>
     <v>BLACKROCK, INC.</v>
     <v>BLACKROCK, INC.</v>
-    <v>656.6</v>
-    <v>19.322199999999999</v>
-    <v>656.04</v>
-    <v>656.4</v>
-    <v>656.3</v>
-    <v>150236400</v>
+    <v>655.32000000000005</v>
+    <v>20.4834</v>
+    <v>655</v>
+    <v>660.52</v>
+    <v>663.5</v>
+    <v>149762600</v>
     <v>BLK</v>
     <v>BLACKROCK, INC. (XNYS:BLK)</v>
-    <v>441769</v>
-    <v>726414</v>
+    <v>522806</v>
+    <v>612810</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -3040,7 +3040,7 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="AC95" sqref="AC95"/>
@@ -4618,15 +4618,15 @@
       </c>
       <c r="AG16" s="30">
         <f>AH100/Z3</f>
-        <v>5.5175493761539753</v>
+        <v>5.4884205225759528</v>
       </c>
       <c r="AH16" s="30">
         <f>AH100/Z28</f>
-        <v>19.04502896871379</v>
+        <v>18.944484356894552</v>
       </c>
       <c r="AI16" s="31">
         <f>AH100/Z106</f>
-        <v>22.29598914763735</v>
+        <v>22.178281709247116</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -10030,10 +10030,10 @@
       <c r="Z82" s="1">
         <v>416000000</v>
       </c>
-      <c r="AG82" s="62" t="s">
+      <c r="AG82" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="AH82" s="63"/>
+      <c r="AH82" s="64"/>
     </row>
     <row r="83" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
@@ -10114,10 +10114,10 @@
       <c r="Z83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AG83" s="66" t="s">
+      <c r="AG83" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="AH83" s="67"/>
+      <c r="AH83" s="68"/>
     </row>
     <row r="84" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -10930,10 +10930,10 @@
       <c r="Z92" s="1">
         <v>242000000</v>
       </c>
-      <c r="AG92" s="64" t="s">
+      <c r="AG92" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="AH92" s="65"/>
+      <c r="AH92" s="66"/>
     </row>
     <row r="93" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
@@ -11105,7 +11105,7 @@
       </c>
       <c r="AH94" s="57" cm="1">
         <f t="array" ref="AH94">_FV(A1,"Beta")</f>
-        <v>1.2902</v>
+        <v>1.2894000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -11278,7 +11278,7 @@
       </c>
       <c r="AH96" s="55">
         <f>(AH93)+((AH94)*(AH95-AH93))</f>
-        <v>9.6493110000000007E-2</v>
+        <v>9.645867000000001E-2</v>
       </c>
     </row>
     <row r="97" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -11360,10 +11360,10 @@
       <c r="Z97" s="1">
         <v>-2332000000</v>
       </c>
-      <c r="AG97" s="64" t="s">
+      <c r="AG97" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="AH97" s="65"/>
+      <c r="AH97" s="66"/>
     </row>
     <row r="98" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
@@ -11536,7 +11536,7 @@
       </c>
       <c r="AH99" s="53">
         <f>AH98/AH102</f>
-        <v>8.6390459306341594E-2</v>
+        <v>8.6809159674301348E-2</v>
       </c>
     </row>
     <row r="100" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -11623,7 +11623,7 @@
       </c>
       <c r="AH100" s="43" cm="1">
         <f t="array" ref="AH100">_FV(A1,"Market cap",TRUE)</f>
-        <v>98615160000</v>
+        <v>98094540000</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -11710,7 +11710,7 @@
       </c>
       <c r="AH101" s="53">
         <f>AH100/AH102</f>
-        <v>0.91360954069365841</v>
+        <v>0.91319084032569864</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -11797,7 +11797,7 @@
       </c>
       <c r="AH102" s="58">
         <f>AH98+AH100</f>
-        <v>107940160000</v>
+        <v>107419540000</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -11879,10 +11879,10 @@
       <c r="Z103" s="1">
         <v>9340000000</v>
       </c>
-      <c r="AG103" s="66" t="s">
+      <c r="AG103" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="AH103" s="67"/>
+      <c r="AH103" s="68"/>
     </row>
     <row r="104" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
@@ -11968,7 +11968,7 @@
       </c>
       <c r="AH104" s="26">
         <f>(AH99*AH91)+(AH101*AH96)</f>
-        <v>8.9716401369347082E-2</v>
+        <v>8.9652107051898966E-2</v>
       </c>
     </row>
     <row r="105" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -12078,10 +12078,10 @@
       <c r="AD105" s="15"/>
       <c r="AE105" s="15"/>
       <c r="AF105" s="15"/>
-      <c r="AG105" s="68" t="s">
+      <c r="AG105" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="AH105" s="69"/>
+      <c r="AH105" s="70"/>
       <c r="AI105" s="15"/>
       <c r="AJ105" s="15"/>
       <c r="AK105" s="15"/>
@@ -12243,7 +12243,7 @@
       <c r="AD107" s="33"/>
       <c r="AE107" s="36">
         <f>AE106*(1+AH107)/(AH108-AH107)</f>
-        <v>89484273320.820053</v>
+        <v>89573262381.468689</v>
       </c>
       <c r="AF107" s="37" t="s">
         <v>146</v>
@@ -12274,7 +12274,7 @@
       </c>
       <c r="AE108" s="36">
         <f>AE107+AE106</f>
-        <v>95134127124.209854</v>
+        <v>95223116184.85849</v>
       </c>
       <c r="AF108" s="37" t="s">
         <v>142</v>
@@ -12284,14 +12284,14 @@
       </c>
       <c r="AH108" s="41">
         <f>AH104</f>
-        <v>8.9716401369347082E-2</v>
+        <v>8.9652107051898966E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AA109" s="60" t="s">
+      <c r="AA109" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="AB109" s="61"/>
+      <c r="AB109" s="62"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="AA110" s="42" t="s">
@@ -12299,7 +12299,7 @@
       </c>
       <c r="AB110" s="43">
         <f>NPV(AH108,AA108,AB108,AC108,AD108,AE108)</f>
-        <v>78055630710.913696</v>
+        <v>78134164840.892822</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -12326,7 +12326,7 @@
       </c>
       <c r="AB113" s="43">
         <f>AB110+AB111-AB112</f>
-        <v>83612630710.913696</v>
+        <v>83691164840.892822</v>
       </c>
     </row>
     <row r="114" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12342,9 +12342,9 @@
       <c r="AA115" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="AB115" s="70">
+      <c r="AB115" s="60">
         <f>AB113/AB114</f>
-        <v>593.13941771467114</v>
+        <v>593.69653076960651</v>
       </c>
     </row>
     <row r="116" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="AB116" s="59" cm="1">
         <f t="array" ref="AB116">_FV(A1,"Price")</f>
-        <v>656.4</v>
+        <v>660.52</v>
       </c>
     </row>
     <row r="117" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12362,7 +12362,7 @@
       </c>
       <c r="AB117" s="46">
         <f>AB115/AB116-1</f>
-        <v>-9.6375049185449146E-2</v>
+        <v>-0.10116797255252452</v>
       </c>
     </row>
     <row r="118" spans="27:28" ht="20" x14ac:dyDescent="0.25">

--- a/Financial Services/BlackRock.xlsx
+++ b/Financial Services/BlackRock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7064CEF-6D43-374A-B363-A29A55E1BD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63515BB7-FD62-3047-97BA-2DFD66016DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2422,11 +2422,11 @@
     <v>Powered by Refinitiv</v>
     <v>785.65</v>
     <v>503.12360000000001</v>
-    <v>1.2894000000000001</v>
-    <v>5.52</v>
-    <v>8.4270000000000005E-3</v>
-    <v>2.98</v>
-    <v>4.5119999999999995E-3</v>
+    <v>1.2889999999999999</v>
+    <v>1.28</v>
+    <v>1.9040000000000001E-3</v>
+    <v>16.420000000000002</v>
+    <v>2.4376999999999999E-2</v>
     <v>USD</v>
     <v>BlackRock, Inc. is an investment management company. The Company provides a range of investment management and technology services to institutional and retail clients. Its diverse platform of alpha-seeking active, index and cash management investment strategies across asset classes enables the Company to tailor investment outcomes and asset allocation solutions for clients. The Company's product offerings include single- and multi-asset portfolios investing in equities, fixed income, alternatives and money market instruments. Its products are offered directly and through intermediaries in a range of vehicles, including open-end and closed-end mutual funds, iShares exchange-traded funds (ETFs), separate accounts, collective investment funds and other pooled investment vehicles. The Company also offers technology services, including the investment and risk management technology platform, Aladdin, Aladdin Wealth, eFront, and Cachematrix, as well as advisory services and solutions.</v>
     <v>19500</v>
@@ -2434,25 +2434,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>50 Hudson Yards, NEW YORK, NY, 10001 US</v>
-    <v>663.12</v>
+    <v>680.69079999999997</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>45071.985360821091</v>
+    <v>45076.989505717189</v>
     <v>0</v>
-    <v>653.4</v>
-    <v>98094540000</v>
+    <v>668.89</v>
+    <v>100877092108</v>
     <v>BLACKROCK, INC.</v>
     <v>BLACKROCK, INC.</v>
-    <v>655.32000000000005</v>
-    <v>20.4834</v>
-    <v>655</v>
-    <v>660.52</v>
-    <v>663.5</v>
+    <v>677.54</v>
+    <v>20.848800000000001</v>
+    <v>672.3</v>
+    <v>673.58</v>
+    <v>690</v>
     <v>149762600</v>
     <v>BLK</v>
     <v>BLACKROCK, INC. (XNYS:BLK)</v>
-    <v>522806</v>
-    <v>612810</v>
+    <v>504255</v>
+    <v>600883</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -3040,10 +3040,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC95" sqref="AC95"/>
+      <selection pane="bottomRight" activeCell="Z115" sqref="Z115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4618,15 +4618,15 @@
       </c>
       <c r="AG16" s="30">
         <f>AH100/Z3</f>
-        <v>5.4884205225759528</v>
+        <v>5.6441051926369381</v>
       </c>
       <c r="AH16" s="30">
         <f>AH100/Z28</f>
-        <v>18.944484356894552</v>
+        <v>19.481864061027423</v>
       </c>
       <c r="AI16" s="31">
         <f>AH100/Z106</f>
-        <v>22.178281709247116</v>
+        <v>22.807391387745874</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -11105,7 +11105,7 @@
       </c>
       <c r="AH94" s="57" cm="1">
         <f t="array" ref="AH94">_FV(A1,"Beta")</f>
-        <v>1.2894000000000001</v>
+        <v>1.2889999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -11278,7 +11278,7 @@
       </c>
       <c r="AH96" s="55">
         <f>(AH93)+((AH94)*(AH95-AH93))</f>
-        <v>9.645867000000001E-2</v>
+        <v>9.6441450000000012E-2</v>
       </c>
     </row>
     <row r="97" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -11536,7 +11536,7 @@
       </c>
       <c r="AH99" s="53">
         <f>AH98/AH102</f>
-        <v>8.6809159674301348E-2</v>
+        <v>8.4617268344246446E-2</v>
       </c>
     </row>
     <row r="100" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -11623,7 +11623,7 @@
       </c>
       <c r="AH100" s="43" cm="1">
         <f t="array" ref="AH100">_FV(A1,"Market cap",TRUE)</f>
-        <v>98094540000</v>
+        <v>100877092108</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -11710,7 +11710,7 @@
       </c>
       <c r="AH101" s="53">
         <f>AH100/AH102</f>
-        <v>0.91319084032569864</v>
+        <v>0.91538273165575357</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -11797,7 +11797,7 @@
       </c>
       <c r="AH102" s="58">
         <f>AH98+AH100</f>
-        <v>107419540000</v>
+        <v>110202092108</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -11968,7 +11968,7 @@
       </c>
       <c r="AH104" s="26">
         <f>(AH99*AH91)+(AH101*AH96)</f>
-        <v>8.9652107051898966E-2</v>
+        <v>8.9808206743150876E-2</v>
       </c>
     </row>
     <row r="105" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -12243,7 +12243,7 @@
       <c r="AD107" s="33"/>
       <c r="AE107" s="36">
         <f>AE106*(1+AH107)/(AH108-AH107)</f>
-        <v>89573262381.468689</v>
+        <v>89357512566.671478</v>
       </c>
       <c r="AF107" s="37" t="s">
         <v>146</v>
@@ -12274,7 +12274,7 @@
       </c>
       <c r="AE108" s="36">
         <f>AE107+AE106</f>
-        <v>95223116184.85849</v>
+        <v>95007366370.061279</v>
       </c>
       <c r="AF108" s="37" t="s">
         <v>142</v>
@@ -12284,7 +12284,7 @@
       </c>
       <c r="AH108" s="41">
         <f>AH104</f>
-        <v>8.9652107051898966E-2</v>
+        <v>8.9808206743150876E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -12299,7 +12299,7 @@
       </c>
       <c r="AB110" s="43">
         <f>NPV(AH108,AA108,AB108,AC108,AD108,AE108)</f>
-        <v>78134164840.892822</v>
+        <v>77943762884.472763</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -12326,7 +12326,7 @@
       </c>
       <c r="AB113" s="43">
         <f>AB110+AB111-AB112</f>
-        <v>83691164840.892822</v>
+        <v>83500762884.472763</v>
       </c>
     </row>
     <row r="114" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12344,7 +12344,7 @@
       </c>
       <c r="AB115" s="60">
         <f>AB113/AB114</f>
-        <v>593.69653076960651</v>
+        <v>592.34583883942207</v>
       </c>
     </row>
     <row r="116" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="AB116" s="59" cm="1">
         <f t="array" ref="AB116">_FV(A1,"Price")</f>
-        <v>660.52</v>
+        <v>673.58</v>
       </c>
     </row>
     <row r="117" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12362,7 +12362,7 @@
       </c>
       <c r="AB117" s="46">
         <f>AB115/AB116-1</f>
-        <v>-0.10116797255252452</v>
+        <v>-0.12060061338011518</v>
       </c>
     </row>
     <row r="118" spans="27:28" ht="20" x14ac:dyDescent="0.25">

--- a/Financial Services/BlackRock.xlsx
+++ b/Financial Services/BlackRock.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63515BB7-FD62-3047-97BA-2DFD66016DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FE0673-62EB-D84F-A979-5318A3E3B692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -504,9 +504,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,18 +547,47 @@
   </si>
   <si>
     <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -724,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -888,12 +914,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -946,12 +981,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1013,6 +1042,28 @@
     <xf numFmtId="164" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1042,6 +1093,9 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1093,12 +1147,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>BLK</a:t>
+              <a:t>BlackRock</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42941405191826976"/>
+          <c:y val="2.1665533633182046E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1132,10 +1193,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.4210792261158148E-2"/>
+          <c:x val="9.0144403052603808E-2"/>
           <c:y val="0.14319546657974944"/>
-          <c:w val="0.87400497266664334"/>
-          <c:h val="0.67652788499476779"/>
+          <c:w val="0.87002156996878199"/>
+          <c:h val="0.66298686676293894"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1421,11 +1482,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1465,7 +1526,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$Z$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$Z$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1651,7 +1712,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1681,8 +1742,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35522626093253235"/>
-          <c:y val="0.90330937390996058"/>
+          <c:x val="0.35655406183181948"/>
+          <c:y val="0.88706030268627023"/>
           <c:w val="0.30431126496873345"/>
           <c:h val="5.9545399962259618E-2"/>
         </c:manualLayout>
@@ -2264,15 +2325,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>39687</xdr:colOff>
+      <xdr:colOff>23812</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>25399</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>1587499</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>15874</xdr:rowOff>
+      <xdr:colOff>1571624</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2298,6 +2359,68 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
+        <row r="8">
+          <cell r="C8">
+            <v>3.739E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2422,11 +2545,9 @@
     <v>Powered by Refinitiv</v>
     <v>785.65</v>
     <v>503.12360000000001</v>
-    <v>1.2889999999999999</v>
-    <v>1.28</v>
-    <v>1.9040000000000001E-3</v>
-    <v>16.420000000000002</v>
-    <v>2.4376999999999999E-2</v>
+    <v>1.2856000000000001</v>
+    <v>1.07</v>
+    <v>1.575E-3</v>
     <v>USD</v>
     <v>BlackRock, Inc. is an investment management company. The Company provides a range of investment management and technology services to institutional and retail clients. Its diverse platform of alpha-seeking active, index and cash management investment strategies across asset classes enables the Company to tailor investment outcomes and asset allocation solutions for clients. The Company's product offerings include single- and multi-asset portfolios investing in equities, fixed income, alternatives and money market instruments. Its products are offered directly and through intermediaries in a range of vehicles, including open-end and closed-end mutual funds, iShares exchange-traded funds (ETFs), separate accounts, collective investment funds and other pooled investment vehicles. The Company also offers technology services, including the investment and risk management technology platform, Aladdin, Aladdin Wealth, eFront, and Cachematrix, as well as advisory services and solutions.</v>
     <v>19500</v>
@@ -2434,25 +2555,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>50 Hudson Yards, NEW YORK, NY, 10001 US</v>
-    <v>680.69079999999997</v>
+    <v>682.93</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>45076.989505717189</v>
+    <v>45100.997072175778</v>
     <v>0</v>
-    <v>668.89</v>
-    <v>100877092108</v>
+    <v>670</v>
+    <v>101906000000</v>
     <v>BLACKROCK, INC.</v>
     <v>BLACKROCK, INC.</v>
-    <v>677.54</v>
-    <v>20.848800000000001</v>
-    <v>672.3</v>
-    <v>673.58</v>
-    <v>690</v>
+    <v>670.35</v>
+    <v>21.101500000000001</v>
+    <v>679.38</v>
+    <v>680.45</v>
     <v>149762600</v>
     <v>BLK</v>
     <v>BLACKROCK, INC. (XNYS:BLK)</v>
-    <v>504255</v>
-    <v>600883</v>
+    <v>46</v>
+    <v>710067</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2484,8 +2604,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2506,7 +2624,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2523,7 +2640,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2534,16 +2651,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2609,19 +2723,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2666,9 +2774,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2676,9 +2781,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3040,10 +3142,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z115" sqref="Z115"/>
+      <selection pane="bottomRight" activeCell="A107" sqref="A105:A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3153,85 +3255,85 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
@@ -3321,36 +3423,36 @@
         <v>17873000000</v>
       </c>
       <c r="AA3" s="28">
-        <v>18191000000</v>
+        <v>18137000000</v>
       </c>
       <c r="AB3" s="28">
-        <v>20100000000</v>
+        <v>20090000000</v>
       </c>
       <c r="AC3" s="28">
-        <v>21867000000</v>
+        <v>22000000000</v>
       </c>
       <c r="AD3" s="28">
-        <v>21249000000</v>
+        <v>21000000000</v>
       </c>
       <c r="AE3" s="28">
-        <v>22705000000</v>
+        <v>22915000000</v>
       </c>
       <c r="AF3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AG3" s="19" t="s">
+      <c r="AH3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AH3" s="19" t="s">
+      <c r="AI3" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="AI3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3451,23 +3553,23 @@
       </c>
       <c r="AA4" s="16">
         <f t="shared" si="0"/>
-        <v>1.7792200525933E-2</v>
+        <v>1.4770883455491601E-2</v>
       </c>
       <c r="AB4" s="16">
         <f t="shared" si="0"/>
-        <v>0.10494200428783462</v>
+        <v>0.10768043226553448</v>
       </c>
       <c r="AC4" s="16">
         <f t="shared" si="0"/>
-        <v>8.7910447761194055E-2</v>
+        <v>9.5072175211547982E-2</v>
       </c>
       <c r="AD4" s="16">
         <f t="shared" si="0"/>
-        <v>-2.8261764302373482E-2</v>
+        <v>-4.5454545454545414E-2</v>
       </c>
       <c r="AE4" s="16">
         <f t="shared" si="0"/>
-        <v>6.8520871570426856E-2</v>
+        <v>9.1190476190476266E-2</v>
       </c>
       <c r="AF4" s="17">
         <f>(Z4+Y4+X4)/3</f>
@@ -3482,7 +3584,7 @@
         <v>5.8609029520188614E-2</v>
       </c>
       <c r="AI4" s="17">
-        <f>(Z105+Y105+X105)/3</f>
+        <f>(Z106+Y106+X106)/3</f>
         <v>0.20243659748138085</v>
       </c>
       <c r="AJ4" s="16"/>
@@ -3498,31 +3600,31 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K5" s="1">
         <v>547620000</v>
@@ -3578,31 +3680,31 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K6" s="10">
         <v>4297035000</v>
@@ -3653,16 +3755,16 @@
         <v>8787000000</v>
       </c>
       <c r="AF6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AG6" s="19" t="s">
+      <c r="AH6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AH6" s="19" t="s">
+      <c r="AI6" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="AI6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -3670,31 +3772,31 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K7" s="2">
         <v>0.88700000000000001</v>
@@ -3757,7 +3859,7 @@
         <v>0.28970000000000001</v>
       </c>
       <c r="AI7" s="20">
-        <f>Z106/Z3</f>
+        <f>Z107/Z3</f>
         <v>0.24746824819560231</v>
       </c>
     </row>
@@ -3843,7 +3945,7 @@
     </row>
     <row r="9" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3950,16 +4052,16 @@
       <c r="AC9" s="15"/>
       <c r="AD9" s="15"/>
       <c r="AF9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AG9" s="19" t="s">
+      <c r="AH9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AH9" s="19" t="s">
+      <c r="AI9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AI9" s="19" t="s">
-        <v>99</v>
       </c>
       <c r="AJ9" s="15"/>
       <c r="AK9" s="15"/>
@@ -4066,52 +4168,52 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1">
         <v>413000000</v>
@@ -4221,21 +4323,21 @@
         <v>2147000000</v>
       </c>
       <c r="AF12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AG12" s="19" t="s">
+      <c r="AH12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AH12" s="19" t="s">
+      <c r="AI12" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="AI12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -4521,16 +4623,16 @@
         <v>2298000000</v>
       </c>
       <c r="AF15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AG15" s="19" t="s">
+      <c r="AH15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AH15" s="19" t="s">
+      <c r="AI15" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="AI15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -4616,17 +4718,17 @@
         <f>(Z35+Y35+X35+W35+V35)/5</f>
         <v>-1.5004940578522663E-2</v>
       </c>
-      <c r="AG16" s="30">
+      <c r="AG16" s="59">
         <f>AH100/Z3</f>
-        <v>5.6441051926369381</v>
-      </c>
-      <c r="AH16" s="30">
+        <v>5.7016729144519669</v>
+      </c>
+      <c r="AH16" s="59">
         <f>AH100/Z28</f>
-        <v>19.481864061027423</v>
-      </c>
-      <c r="AI16" s="31">
-        <f>AH100/Z106</f>
-        <v>22.807391387745874</v>
+        <v>19.68057164928544</v>
+      </c>
+      <c r="AI16" s="61">
+        <f>AH100/Z107</f>
+        <v>23.040018087271083</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4634,31 +4736,31 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1">
         <v>49412000</v>
@@ -4789,7 +4891,16 @@
         <v>151000000</v>
       </c>
       <c r="AF18" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH18" s="19" t="s">
         <v>159</v>
+      </c>
+      <c r="AI18" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4871,14 +4982,41 @@
       <c r="Z19" s="10">
         <v>6837000000</v>
       </c>
-      <c r="AF19" s="48">
+      <c r="AA19" s="65">
+        <v>7213000000</v>
+      </c>
+      <c r="AB19" s="65">
+        <v>8214000000</v>
+      </c>
+      <c r="AC19" s="65">
+        <v>8798000000</v>
+      </c>
+      <c r="AD19" s="65">
+        <v>7400000000</v>
+      </c>
+      <c r="AE19" s="65">
+        <v>8400000000</v>
+      </c>
+      <c r="AF19" s="46">
         <f>Z40-Z56-Z61</f>
         <v>5557000000</v>
+      </c>
+      <c r="AG19" s="59">
+        <f>AH100/AA3</f>
+        <v>5.6186800463141644</v>
+      </c>
+      <c r="AH19" s="60">
+        <f>AH100/AA28</f>
+        <v>19.282119205298013</v>
+      </c>
+      <c r="AI19" s="61">
+        <f>AH100/AA106</f>
+        <v>19.065668849391955</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4977,6 +5115,27 @@
         <f t="shared" ref="Z20" si="7">(Z19/Y19)-1</f>
         <v>-0.19460478265991288</v>
       </c>
+      <c r="AA20" s="16">
+        <f t="shared" ref="AA20" si="8">(AA19/Z19)-1</f>
+        <v>5.4994880795670609E-2</v>
+      </c>
+      <c r="AB20" s="16">
+        <f t="shared" ref="AB20" si="9">(AB19/AA19)-1</f>
+        <v>0.13877720781921532</v>
+      </c>
+      <c r="AC20" s="16">
+        <f t="shared" ref="AC20" si="10">(AC19/AB19)-1</f>
+        <v>7.109812515217917E-2</v>
+      </c>
+      <c r="AD20" s="16">
+        <f t="shared" ref="AD20" si="11">(AD19/AC19)-1</f>
+        <v>-0.15889974994316891</v>
+      </c>
+      <c r="AE20" s="16">
+        <f t="shared" ref="AE20" si="12">(AE19/AD19)-1</f>
+        <v>0.13513513513513509</v>
+      </c>
+      <c r="AG20" s="15"/>
       <c r="AH20" s="15"/>
       <c r="AI20" s="15"/>
       <c r="AJ20" s="15"/>
@@ -4985,7 +5144,7 @@
       <c r="AT20" s="15"/>
       <c r="AU20" s="15"/>
     </row>
-    <row r="21" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5063,6 +5222,32 @@
       </c>
       <c r="Z21" s="2">
         <v>0.38250000000000001</v>
+      </c>
+      <c r="AA21" s="66">
+        <f>AA19/AA3</f>
+        <v>0.39769531896123944</v>
+      </c>
+      <c r="AB21" s="66">
+        <f t="shared" ref="AB21:AE21" si="13">AB19/AB3</f>
+        <v>0.40886012941762073</v>
+      </c>
+      <c r="AC21" s="66">
+        <f t="shared" si="13"/>
+        <v>0.39990909090909094</v>
+      </c>
+      <c r="AD21" s="66">
+        <f t="shared" si="13"/>
+        <v>0.35238095238095241</v>
+      </c>
+      <c r="AE21" s="66">
+        <f t="shared" si="13"/>
+        <v>0.36657211433558806</v>
+      </c>
+      <c r="AH21" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI21" s="19" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -5144,6 +5329,14 @@
       <c r="Z22" s="10">
         <v>6489000000</v>
       </c>
+      <c r="AH22" s="62">
+        <f>-1*Z98/AH100</f>
+        <v>2.9340765018742762E-2</v>
+      </c>
+      <c r="AI22" s="63">
+        <f>Z107/AH100</f>
+        <v>4.3402743704983024E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -5545,7 +5738,7 @@
         <v>1296000000</v>
       </c>
     </row>
-    <row r="28" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -5624,10 +5817,25 @@
       <c r="Z28" s="11">
         <v>5178000000</v>
       </c>
+      <c r="AA28" s="67">
+        <v>5285000000</v>
+      </c>
+      <c r="AB28" s="67">
+        <v>6095000000</v>
+      </c>
+      <c r="AC28" s="67">
+        <v>6819000000</v>
+      </c>
+      <c r="AD28" s="67">
+        <v>6810000000</v>
+      </c>
+      <c r="AE28" s="67">
+        <v>7240000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -5643,88 +5851,108 @@
         <v>0.22977072148899391</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:V29" si="8">(F28/E28)-1</f>
+        <f t="shared" ref="F29:V29" si="14">(F28/E28)-1</f>
         <v>0.24028705996239541</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.16625265480416362</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-7.8898598473636117E-2</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.63410902536659663</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.37918326863553187</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.0851389638005964</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-0.21026613830189134</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.11323155216284997</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.3577142857142857</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.13281628696073677</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5.1775780915703784E-2</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.19283970707892606</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.12346521145975453</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.5482695810564717E-2</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-5.1718983557548559E-2</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.56683480453972268</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-0.13380281690140849</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" ref="W29" si="9">(W28/V28)-1</f>
+        <f t="shared" ref="W29" si="15">(W28/V28)-1</f>
         <v>3.9721254355400637E-2</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" ref="X29" si="10">(X28/W28)-1</f>
+        <f t="shared" ref="X29" si="16">(X28/W28)-1</f>
         <v>0.10187667560321723</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" ref="Y29" si="11">(Y28/X28)-1</f>
+        <f t="shared" ref="Y29" si="17">(Y28/X28)-1</f>
         <v>0.19647201946472026</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" ref="Z29" si="12">(Z28/Y28)-1</f>
+        <f t="shared" ref="Z29" si="18">(Z28/Y28)-1</f>
         <v>-0.12252160650737165</v>
+      </c>
+      <c r="AA29" s="16">
+        <f t="shared" ref="AA29" si="19">(AA28/Z28)-1</f>
+        <v>2.0664349169563501E-2</v>
+      </c>
+      <c r="AB29" s="16">
+        <f t="shared" ref="AB29" si="20">(AB28/AA28)-1</f>
+        <v>0.15326395458845798</v>
+      </c>
+      <c r="AC29" s="16">
+        <f t="shared" ref="AC29" si="21">(AC28/AB28)-1</f>
+        <v>0.118785890073831</v>
+      </c>
+      <c r="AD29" s="16">
+        <f t="shared" ref="AD29" si="22">(AD28/AC28)-1</f>
+        <v>-1.3198416190056683E-3</v>
+      </c>
+      <c r="AE29" s="16">
+        <f t="shared" ref="AE29" si="23">(AE28/AD28)-1</f>
+        <v>6.3142437591776845E-2</v>
       </c>
       <c r="AH29" s="15"/>
       <c r="AI29" s="15"/>
@@ -5813,6 +6041,26 @@
       <c r="Z30" s="2">
         <v>0.28970000000000001</v>
       </c>
+      <c r="AA30" s="68">
+        <f>AA28/AA3</f>
+        <v>0.29139328444615981</v>
+      </c>
+      <c r="AB30" s="68">
+        <f t="shared" ref="AB30:AE30" si="24">AB28/AB3</f>
+        <v>0.30338476854156299</v>
+      </c>
+      <c r="AC30" s="68">
+        <f t="shared" si="24"/>
+        <v>0.30995454545454543</v>
+      </c>
+      <c r="AD30" s="68">
+        <f t="shared" si="24"/>
+        <v>0.32428571428571429</v>
+      </c>
+      <c r="AE30" s="68">
+        <f t="shared" si="24"/>
+        <v>0.31595025092734019</v>
+      </c>
     </row>
     <row r="31" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -5893,6 +6141,21 @@
       <c r="Z31" s="12">
         <v>33.74</v>
       </c>
+      <c r="AA31" s="69">
+        <v>35.29</v>
+      </c>
+      <c r="AB31" s="69">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="AC31" s="69">
+        <v>45.53</v>
+      </c>
+      <c r="AD31" s="69">
+        <v>45.47</v>
+      </c>
+      <c r="AE31" s="69">
+        <v>48.34</v>
+      </c>
     </row>
     <row r="32" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -6136,7 +6399,7 @@
     </row>
     <row r="35" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -6144,95 +6407,95 @@
         <v>6.6775550500264277E-2</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:V35" si="13">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:V35" si="25">(D34-C34)/C34</f>
         <v>0.1278493818775534</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>5.194121810742836E-3</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>5.8735765511238386E-3</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>8.4648714724368454E-3</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.5199581028760725E-3</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.3867032154241829E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.24647788074460963</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.58458918966217133</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>6.8712557861638698E-3</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>4.8760881739784497E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.38148870965629272</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>-2.8935480663610368E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>-4.8626045144837912E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>-2.3530118039568417E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>-1.5628246906834859E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>-1.2118886091979112E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>-1.4545905028977084E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>-1.308533584561946E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>-1.4910389294403893E-2</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" ref="W35" si="14">(W34-V34)/V34</f>
+        <f t="shared" ref="W35" si="26">(W34-V34)/V34</f>
         <v>-2.7719797151607214E-2</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" ref="X35" si="15">(X34-W34)/W34</f>
+        <f t="shared" ref="X35" si="27">(X34-W34)/W34</f>
         <v>-1.6632614957495177E-2</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" ref="Y35" si="16">(Y34-X34)/X34</f>
+        <f t="shared" ref="Y35" si="28">(Y34-X34)/X34</f>
         <v>0</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" ref="Z35" si="17">(Z34-Y34)/Y34</f>
+        <f t="shared" ref="Z35" si="29">(Z34-Y34)/Y34</f>
         <v>-1.5761901489107034E-2</v>
       </c>
       <c r="AH35" s="22"/>
@@ -6246,79 +6509,79 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:38" ht="21" x14ac:dyDescent="0.25">
@@ -6326,79 +6589,79 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -6406,7 +6669,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1">
         <v>157129000</v>
@@ -6513,46 +6776,46 @@
         <v>2097574000</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y39" s="1">
         <v>7262000000</v>
@@ -6646,7 +6909,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1">
         <v>2111000</v>
@@ -6726,79 +6989,79 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -6836,49 +7099,49 @@
         <v>174849000</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -7046,28 +7309,28 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1">
         <v>194257000</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1">
         <v>5257017000</v>
@@ -7129,7 +7392,7 @@
         <v>203900000</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1">
         <v>192142000</v>
@@ -7286,16 +7549,16 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1">
         <v>208743000</v>
@@ -7355,10 +7618,10 @@
         <v>6919000000</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -7366,79 +7629,79 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -7446,16 +7709,16 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F51" s="1">
         <v>-208743000</v>
@@ -7515,10 +7778,10 @@
         <v>124369000000</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -7606,73 +7869,73 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1">
         <v>96087000000</v>
@@ -7766,31 +8029,31 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1">
         <v>705000</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K55" s="1">
         <v>788968000</v>
@@ -7835,10 +8098,10 @@
         <v>1028000000</v>
       </c>
       <c r="Y55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -7852,25 +8115,25 @@
         <v>28200000</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56" s="1">
         <v>300000000</v>
@@ -7891,28 +8154,28 @@
         <v>100000000</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y56" s="1">
         <v>7488000000</v>
@@ -7926,79 +8189,79 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -8006,79 +8269,79 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X58" s="1">
         <v>3673000000</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -8086,28 +8349,28 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J59" s="1">
         <v>9435000000</v>
@@ -8131,34 +8394,34 @@
         <v>14000000</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X59" s="1">
         <v>-3673000000</v>
       </c>
       <c r="Y59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -8172,22 +8435,22 @@
         <v>28905000</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J60" s="10">
         <v>9435000000</v>
@@ -8252,19 +8515,19 @@
         <v>28200000</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1">
         <v>253791000</v>
@@ -8315,7 +8578,7 @@
         <v>7264000000</v>
       </c>
       <c r="Y61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z61" s="1">
         <v>7490000000</v>
@@ -8326,79 +8589,79 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -8406,28 +8669,28 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1">
         <v>1738670000</v>
@@ -8486,28 +8749,28 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J64" s="1">
         <v>-1982673000</v>
@@ -8572,19 +8835,19 @@
         <v>28200000</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I65" s="1">
         <v>253791000</v>
@@ -8670,55 +8933,55 @@
         <v>662352000</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -8806,7 +9069,7 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1">
         <v>639000</v>
@@ -8966,16 +9229,16 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F70" s="1">
         <v>231000</v>
@@ -9286,79 +9549,79 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:38" ht="21" x14ac:dyDescent="0.25">
@@ -9366,79 +9629,79 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -9606,13 +9869,13 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1">
         <v>-8460000</v>
@@ -9686,31 +9949,31 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1">
         <v>188256000</v>
@@ -9763,106 +10026,106 @@
     </row>
     <row r="80" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:Z80" si="18">B79/B3</f>
+        <f t="shared" ref="B80:Z80" si="30">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>3.8858494567724639E-2</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>5.4897314375987362E-2</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>6.7446808510638293E-2</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>5.1672085462145842E-2</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>5.4729655324303489E-2</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>4.8302452607904035E-2</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>4.4007858546168961E-2</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>4.0880786932587308E-2</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>4.5083764582054209E-2</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>4.6705513222770056E-2</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>4.3391241694019693E-2</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>3.9723904775320465E-2</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>3.8998555609051515E-2</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>3.8383215057081151E-2</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>3.7885826365231752E-2</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>3.961282381245454E-2</v>
       </c>
       <c r="AH80" s="15"/>
@@ -10030,94 +10293,94 @@
       <c r="Z82" s="1">
         <v>416000000</v>
       </c>
-      <c r="AG82" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH82" s="64"/>
+      <c r="AG82" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH82" s="74"/>
     </row>
     <row r="83" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG83" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH83" s="68"/>
+        <v>91</v>
+      </c>
+      <c r="AG83" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH83" s="78"/>
     </row>
     <row r="84" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -10151,19 +10414,19 @@
         <v>385533000</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1">
         <v>114000000</v>
@@ -10187,21 +10450,21 @@
         <v>43000000</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y84" s="1">
         <v>342000000</v>
       </c>
       <c r="Z84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG84" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH84" s="51">
+        <v>91</v>
+      </c>
+      <c r="AG84" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH84" s="49">
         <f>Z17</f>
         <v>212000000</v>
       </c>
@@ -10283,12 +10546,12 @@
         <v>412000000</v>
       </c>
       <c r="Z85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG85" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH85" s="51">
+        <v>91</v>
+      </c>
+      <c r="AG85" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH85" s="49">
         <f>Z56</f>
         <v>1835000000</v>
       </c>
@@ -10370,12 +10633,12 @@
         <v>-1899000000</v>
       </c>
       <c r="Z86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG86" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH86" s="51">
+        <v>91</v>
+      </c>
+      <c r="AG86" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH86" s="49">
         <f>Z61</f>
         <v>7490000000</v>
       </c>
@@ -10459,10 +10722,10 @@
       <c r="Z87" s="10">
         <v>4956000000</v>
       </c>
-      <c r="AG87" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH87" s="53">
+      <c r="AG87" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH87" s="51">
         <f>AH84/(AH85+AH86)</f>
         <v>2.2734584450402145E-2</v>
       </c>
@@ -10546,122 +10809,122 @@
       <c r="Z88" s="1">
         <v>-533000000</v>
       </c>
-      <c r="AG88" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH88" s="51">
+      <c r="AG88" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH88" s="49">
         <f>Z27</f>
         <v>1296000000</v>
       </c>
     </row>
     <row r="89" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="15">
-        <f t="shared" ref="B89:Z89" si="19">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:Z89" si="31">(-1*B88)/B3</f>
         <v>2.4597364568081991E-2</v>
       </c>
       <c r="C89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>4.9674393211210005E-2</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>6.8699776879330307E-2</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>7.592507840283301E-2</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>7.4226528960426502E-2</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>2.2488682941833329E-2</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>3.528417465059816E-2</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>4.6293980288504316E-2</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>4.0035253024820111E-2</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>2.2977281147986802E-2</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>1.5205371248025276E-2</v>
       </c>
       <c r="M89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>1.425531914893617E-2</v>
       </c>
       <c r="N89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>1.5327450069670227E-2</v>
       </c>
       <c r="O89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>2.7199647615901334E-2</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>1.606511727535611E-2</v>
       </c>
       <c r="Q89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>9.2337917485265219E-3</v>
       </c>
       <c r="R89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>5.9561411424961649E-3</v>
       </c>
       <c r="S89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>1.9384264538198404E-2</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>1.0667861945316002E-2</v>
       </c>
       <c r="U89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>1.240893443279161E-2</v>
       </c>
       <c r="V89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>1.4368220876179744E-2</v>
       </c>
       <c r="W89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>1.7470252424513378E-2</v>
       </c>
       <c r="X89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>1.1971613699475471E-2</v>
       </c>
       <c r="Y89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>1.7600908433983691E-2</v>
       </c>
       <c r="Z89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>2.9821518491579477E-2</v>
       </c>
-      <c r="AG89" s="50" t="s">
+      <c r="AG89" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="AH89" s="51">
+      <c r="AH89" s="49">
         <f>Z25</f>
         <v>6290000000</v>
       </c>
@@ -10670,7 +10933,7 @@
       <c r="AK89" s="15"/>
       <c r="AL89" s="15"/>
       <c r="AS89" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AT89" s="24">
         <f>AL27</f>
@@ -10682,16 +10945,16 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1">
         <v>-1733000</v>
@@ -10721,7 +10984,7 @@
         <v>-21000000</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1">
         <v>-267000000</v>
@@ -10730,7 +10993,7 @@
         <v>-298000000</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S90" s="1">
         <v>-273000000</v>
@@ -10748,18 +11011,18 @@
         <v>-1510000000</v>
       </c>
       <c r="X90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y90" s="1">
         <v>-1106000000</v>
       </c>
       <c r="Z90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG90" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH90" s="53">
+        <v>91</v>
+      </c>
+      <c r="AG90" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH90" s="51">
         <f>AH88/AH89</f>
         <v>0.20604133545310016</v>
       </c>
@@ -10769,10 +11032,10 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1">
         <v>-12899000</v>
@@ -10843,10 +11106,10 @@
       <c r="Z91" s="1">
         <v>-824000000</v>
       </c>
-      <c r="AG91" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH91" s="55">
+      <c r="AG91" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH91" s="53">
         <f>AH87*(1-AH90)</f>
         <v>1.8050320309270004E-2</v>
       </c>
@@ -10862,13 +11125,13 @@
         <v>29000</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1">
         <v>180509000</v>
@@ -10930,32 +11193,32 @@
       <c r="Z92" s="1">
         <v>242000000</v>
       </c>
-      <c r="AG92" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH92" s="66"/>
+      <c r="AG92" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH92" s="76"/>
     </row>
     <row r="93" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H93" s="1">
         <v>-61925000</v>
@@ -10976,10 +11239,10 @@
         <v>89000000</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P93" s="1">
         <v>73000000</v>
@@ -11014,11 +11277,12 @@
       <c r="Z93" s="1">
         <v>-15000000</v>
       </c>
-      <c r="AG93" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="AH93" s="56">
-        <v>4.095E-2</v>
+      <c r="AG93" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH93" s="54">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.739E-2</v>
       </c>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -11100,12 +11364,12 @@
       <c r="Z94" s="10">
         <v>-1130000000</v>
       </c>
-      <c r="AG94" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH94" s="57" cm="1">
+      <c r="AG94" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH94" s="55" cm="1">
         <f t="array" ref="AH94">_FV(A1,"Beta")</f>
-        <v>1.2889999999999999</v>
+        <v>1.2856000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -11122,25 +11386,25 @@
         <v>-28200000</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1">
         <v>-842000</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1">
         <v>-523680000</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1">
         <v>-401000000</v>
@@ -11167,19 +11431,19 @@
         <v>-750000000</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1">
         <v>-700000000</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="1">
         <v>-1000000000</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y95" s="1">
         <v>-750000000</v>
@@ -11187,10 +11451,10 @@
       <c r="Z95" s="1">
         <v>-750000000</v>
       </c>
-      <c r="AG95" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH95" s="56">
+      <c r="AG95" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH95" s="54">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -11247,25 +11511,25 @@
         <v>7000000</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y96" s="1">
         <v>387000000</v>
@@ -11273,12 +11537,12 @@
       <c r="Z96" s="1">
         <v>576000000</v>
       </c>
-      <c r="AG96" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH96" s="55">
+      <c r="AG96" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH96" s="53">
         <f>(AH93)+((AH94)*(AH95-AH93))</f>
-        <v>9.6441450000000012E-2</v>
+        <v>9.7311816000000009E-2</v>
       </c>
     </row>
     <row r="97" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -11360,10 +11624,10 @@
       <c r="Z97" s="1">
         <v>-2332000000</v>
       </c>
-      <c r="AG97" s="65" t="s">
-        <v>137</v>
-      </c>
-      <c r="AH97" s="66"/>
+      <c r="AG97" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH97" s="76"/>
     </row>
     <row r="98" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
@@ -11373,16 +11637,16 @@
         <v>-12300000</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1">
         <v>-25614000</v>
@@ -11444,10 +11708,10 @@
       <c r="Z98" s="1">
         <v>-2990000000</v>
       </c>
-      <c r="AG98" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH98" s="51">
+      <c r="AG98" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH98" s="49">
         <f>AH85+AH86</f>
         <v>9325000000</v>
       </c>
@@ -11472,7 +11736,7 @@
         <v>-766000</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H99" s="1">
         <v>6258000</v>
@@ -11531,12 +11795,12 @@
       <c r="Z99" s="1">
         <v>54000000</v>
       </c>
-      <c r="AG99" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH99" s="53">
+      <c r="AG99" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH99" s="51">
         <f>AH98/AH102</f>
-        <v>8.4617268344246446E-2</v>
+        <v>8.3834542528611625E-2</v>
       </c>
     </row>
     <row r="100" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -11618,12 +11882,12 @@
       <c r="Z100" s="10">
         <v>-5442000000</v>
       </c>
-      <c r="AG100" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH100" s="43" cm="1">
+      <c r="AG100" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH100" s="41" cm="1">
         <f t="array" ref="AH100">_FV(A1,"Market cap",TRUE)</f>
-        <v>100877092108</v>
+        <v>101906000000</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -11631,10 +11895,10 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1">
         <v>-408000</v>
@@ -11705,12 +11969,12 @@
       <c r="Z101" s="1">
         <v>-291000000</v>
       </c>
-      <c r="AG101" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH101" s="53">
+      <c r="AG101" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH101" s="51">
         <f>AH100/AH102</f>
-        <v>0.91538273165575357</v>
+        <v>0.91616545747138833</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -11792,12 +12056,12 @@
       <c r="Z102" s="10">
         <v>-1907000000</v>
       </c>
-      <c r="AG102" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH102" s="58">
+      <c r="AG102" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH102" s="56">
         <f>AH98+AH100</f>
-        <v>110202092108</v>
+        <v>111231000000</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -11879,12 +12143,12 @@
       <c r="Z103" s="1">
         <v>9340000000</v>
       </c>
-      <c r="AG103" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH103" s="68"/>
+      <c r="AG103" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH103" s="78"/>
     </row>
-    <row r="104" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -11964,124 +12228,144 @@
         <v>7433000000</v>
       </c>
       <c r="AG104" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AH104" s="26">
         <f>(AH99*AH91)+(AH101*AH96)</f>
-        <v>8.9808206743150876E-2</v>
+        <v>9.0666964768634131E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>1.1501324503311259</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>-0.22130162934672126</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>0.67304801835297834</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>1.8314498715463312E-2</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>0.28574966335959395</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:V105" si="20">(H106/G106)-1</f>
-        <v>0.2384947815723899</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="20"/>
-        <v>-2.907671821389346E-2</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="20"/>
-        <v>2.1879138865669252</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="20"/>
-        <v>-0.25241210819433779</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="20"/>
-        <v>2.8623742995639865</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="20"/>
-        <v>-0.27569331158238175</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="20"/>
-        <v>0.76876876876876876</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="20"/>
-        <v>9.4651952461799693E-2</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="20"/>
-        <v>-0.18960837533927877</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="20"/>
-        <v>0.69760765550239245</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="20"/>
-        <v>-0.1502254791431793</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="20"/>
-        <v>-7.6948590381426207E-2</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="20"/>
-        <v>-0.26877470355731226</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="20"/>
-        <v>0.80491400491400489</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="20"/>
-        <v>-0.21835012251565478</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" ref="W105" si="21">(W106/V106)-1</f>
-        <v>-8.3942877046325304E-2</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" ref="X105" si="22">(X106/W106)-1</f>
-        <v>0.34942965779467672</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" ref="Y105" si="23">(Y106/X106)-1</f>
-        <v>0.29698506621583554</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" ref="Z105" si="24">(Z106/Y106)-1</f>
-        <v>-3.9104931566369738E-2</v>
-      </c>
-      <c r="AA105" s="15"/>
-      <c r="AB105" s="15"/>
-      <c r="AC105" s="15"/>
-      <c r="AD105" s="15"/>
-      <c r="AE105" s="15"/>
-      <c r="AF105" s="15"/>
-      <c r="AG105" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH105" s="70"/>
+        <v>165</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:Y105" si="32">(B22*(1-$AH$90))+B77+B88+B81</f>
+        <v>367987440.38155806</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="32"/>
+        <v>125968156.12082672</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="32"/>
+        <v>100573259.45945947</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="32"/>
+        <v>152920709.69793323</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="32"/>
+        <v>162441473.1319555</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="32"/>
+        <v>206233708.10810813</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="32"/>
+        <v>121515758.66454691</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="32"/>
+        <v>138989477.58346581</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="32"/>
+        <v>563129697.9332273</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="32"/>
+        <v>734278741.81240082</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="32"/>
+        <v>1530776152.6232116</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="32"/>
+        <v>906679173.2909379</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="32"/>
+        <v>2264288076.3116059</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="32"/>
+        <v>2248571701.1128778</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="32"/>
+        <v>2383910333.8632751</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="32"/>
+        <v>3253298569.157393</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="32"/>
+        <v>3444171065.1828303</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="32"/>
+        <v>3187023211.4467411</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="32"/>
+        <v>2985391096.9793324</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="32"/>
+        <v>4118750079.4912567</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="32"/>
+        <v>4190632432.4324331</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="32"/>
+        <v>3950264546.8998413</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="32"/>
+        <v>4854594594.594595</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="32"/>
+        <v>6646992050.874404</v>
+      </c>
+      <c r="Z105" s="1">
+        <f>(Z22*(1-$AH$90))+Z77+Z88+Z81</f>
+        <v>3270997774.244833</v>
+      </c>
+      <c r="AA105" s="30">
+        <f>Z105*(1+$AH$106)</f>
+        <v>3443221970.710165</v>
+      </c>
+      <c r="AB105" s="30">
+        <f t="shared" ref="AB105:AE105" si="33">AA105*(1+$AH$106)</f>
+        <v>3624514095.6472545</v>
+      </c>
+      <c r="AC105" s="30">
+        <f t="shared" si="33"/>
+        <v>3815351592.5771422</v>
+      </c>
+      <c r="AD105" s="30">
+        <f t="shared" si="33"/>
+        <v>4016237043.3219156</v>
+      </c>
+      <c r="AE105" s="30">
+        <f t="shared" si="33"/>
+        <v>4227699491.5836263</v>
+      </c>
+      <c r="AF105" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG105" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH105" s="80"/>
       <c r="AI105" s="15"/>
       <c r="AJ105" s="15"/>
       <c r="AK105" s="15"/>
@@ -12093,7 +12377,7 @@
       <c r="AQ105" s="15"/>
       <c r="AR105" s="15"/>
       <c r="AS105" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AT105" s="26">
         <f>(AT100*AT92)+(AT102*AT97)</f>
@@ -12101,275 +12385,344 @@
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>45300000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>97401000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>75846000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>126894000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>129218000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>166142000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>205766000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>199783000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>636891000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>476132000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>1839000000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>1332000000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>2356000000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>2579000000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>2090000000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>3548000000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>3015000000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>2783000000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>2035000000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>3673000000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>2871000000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>2630000000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>3549000000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>4603000000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>4423000000</v>
-      </c>
-      <c r="AA106" s="32">
-        <f>Z106*(1+$AH$106)</f>
-        <v>4644949465.9571314</v>
-      </c>
-      <c r="AB106" s="32">
-        <f t="shared" ref="AB106:AE106" si="25">AA106*(1+$AH$106)</f>
-        <v>4878036523.0150213</v>
-      </c>
-      <c r="AC106" s="32">
-        <f t="shared" si="25"/>
-        <v>5122820063.870225</v>
-      </c>
-      <c r="AD106" s="32">
-        <f t="shared" si="25"/>
-        <v>5379887026.8750801</v>
-      </c>
-      <c r="AE106" s="32">
-        <f t="shared" si="25"/>
-        <v>5649853803.3898039</v>
-      </c>
-      <c r="AF106" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG106" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH106" s="35">
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f t="shared" ref="C106:Z106" si="34">(C107/B107)-1</f>
+        <v>1.1501324503311259</v>
+      </c>
+      <c r="D106" s="15">
+        <f t="shared" si="34"/>
+        <v>-0.22130162934672126</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="34"/>
+        <v>0.67304801835297834</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="34"/>
+        <v>1.8314498715463312E-2</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="34"/>
+        <v>0.28574966335959395</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="34"/>
+        <v>0.2384947815723899</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="34"/>
+        <v>-2.907671821389346E-2</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="34"/>
+        <v>2.1879138865669252</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="34"/>
+        <v>-0.25241210819433779</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="34"/>
+        <v>2.8623742995639865</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="34"/>
+        <v>-0.27569331158238175</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="34"/>
+        <v>0.76876876876876876</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="34"/>
+        <v>9.4651952461799693E-2</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="34"/>
+        <v>-0.18960837533927877</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="34"/>
+        <v>0.69760765550239245</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="34"/>
+        <v>-0.1502254791431793</v>
+      </c>
+      <c r="S106" s="15">
+        <f t="shared" si="34"/>
+        <v>-7.6948590381426207E-2</v>
+      </c>
+      <c r="T106" s="15">
+        <f t="shared" si="34"/>
+        <v>-0.26877470355731226</v>
+      </c>
+      <c r="U106" s="15">
+        <f t="shared" si="34"/>
+        <v>0.80491400491400489</v>
+      </c>
+      <c r="V106" s="15">
+        <f t="shared" si="34"/>
+        <v>-0.21835012251565478</v>
+      </c>
+      <c r="W106" s="15">
+        <f t="shared" si="34"/>
+        <v>-8.3942877046325304E-2</v>
+      </c>
+      <c r="X106" s="15">
+        <f t="shared" si="34"/>
+        <v>0.34942965779467672</v>
+      </c>
+      <c r="Y106" s="15">
+        <f t="shared" si="34"/>
+        <v>0.29698506621583554</v>
+      </c>
+      <c r="Z106" s="15">
+        <f t="shared" si="34"/>
+        <v>-3.9104931566369738E-2</v>
+      </c>
+      <c r="AA106" s="64">
+        <v>5345000000</v>
+      </c>
+      <c r="AB106" s="64">
+        <v>6080000000</v>
+      </c>
+      <c r="AC106" s="64">
+        <v>6662000000</v>
+      </c>
+      <c r="AD106" s="64">
+        <v>5700000000</v>
+      </c>
+      <c r="AE106" s="64">
+        <v>6332000000</v>
+      </c>
+      <c r="AF106" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG106" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH106" s="33">
         <f>(SUM(AA4:AE4)/5)</f>
-        <v>5.0180751968603013E-2</v>
+        <v>5.265188433370098E-2</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="33"/>
-      <c r="AB107" s="33"/>
-      <c r="AC107" s="33"/>
-      <c r="AD107" s="33"/>
-      <c r="AE107" s="36">
+      <c r="A107" s="81" t="s">
+        <v>166</v>
+      </c>
+      <c r="B107" s="1">
+        <v>45300000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>97401000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>75846000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>126894000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>129218000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>166142000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>205766000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>199783000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>636891000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>476132000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>1839000000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>1332000000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>2356000000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>2579000000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>2090000000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>3548000000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>3015000000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>2783000000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>2035000000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>3673000000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>2871000000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>2630000000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>3549000000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>4603000000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>4423000000</v>
+      </c>
+      <c r="AA107" s="31"/>
+      <c r="AB107" s="31"/>
+      <c r="AC107" s="31"/>
+      <c r="AD107" s="31"/>
+      <c r="AE107" s="70">
         <f>AE106*(1+AH107)/(AH108-AH107)</f>
-        <v>89357512566.671478</v>
-      </c>
-      <c r="AF107" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="AG107" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH107" s="39">
+        <v>98836607156.542374</v>
+      </c>
+      <c r="AF107" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG107" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH107" s="37">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AA108" s="36">
-        <f t="shared" ref="AA108:AC108" si="26">AA107+AA106</f>
-        <v>4644949465.9571314</v>
-      </c>
-      <c r="AB108" s="36">
-        <f t="shared" si="26"/>
-        <v>4878036523.0150213</v>
-      </c>
-      <c r="AC108" s="36">
-        <f t="shared" si="26"/>
-        <v>5122820063.870225</v>
-      </c>
-      <c r="AD108" s="36">
+      <c r="AA108" s="34">
+        <f t="shared" ref="AA108:AC108" si="35">AA107+AA106</f>
+        <v>5345000000</v>
+      </c>
+      <c r="AB108" s="34">
+        <f t="shared" si="35"/>
+        <v>6080000000</v>
+      </c>
+      <c r="AC108" s="34">
+        <f t="shared" si="35"/>
+        <v>6662000000</v>
+      </c>
+      <c r="AD108" s="34">
         <f>AD107+AD106</f>
-        <v>5379887026.8750801</v>
-      </c>
-      <c r="AE108" s="36">
+        <v>5700000000</v>
+      </c>
+      <c r="AE108" s="70">
         <f>AE107+AE106</f>
-        <v>95007366370.061279</v>
-      </c>
-      <c r="AF108" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG108" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH108" s="41">
+        <v>105168607156.54237</v>
+      </c>
+      <c r="AF108" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG108" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH108" s="39">
         <f>AH104</f>
-        <v>8.9808206743150876E-2</v>
+        <v>9.0666964768634131E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AA109" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB109" s="62"/>
+      <c r="AA109" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB109" s="72"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA110" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB110" s="43">
+      <c r="AA110" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB110" s="41">
         <f>NPV(AH108,AA108,AB108,AC108,AD108,AE108)</f>
-        <v>77943762884.472763</v>
+        <v>87318478371.475784</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA111" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB111" s="43">
+      <c r="AA111" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB111" s="41">
         <f>Z40</f>
         <v>14882000000</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA112" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB112" s="43">
+      <c r="AA112" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB112" s="41">
         <f>AH98</f>
         <v>9325000000</v>
       </c>
     </row>
     <row r="113" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA113" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB113" s="43">
+      <c r="AA113" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB113" s="41">
         <f>AB110+AB111-AB112</f>
-        <v>83500762884.472763</v>
+        <v>92875478371.475784</v>
       </c>
     </row>
     <row r="114" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA114" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB114" s="49">
+      <c r="AA114" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB114" s="47">
         <f>Z34*(1+(5*AF16))</f>
         <v>140966235.27916574</v>
       </c>
     </row>
     <row r="115" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA115" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB115" s="60">
+      <c r="AA115" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB115" s="58">
         <f>AB113/AB114</f>
-        <v>592.34583883942207</v>
+        <v>658.84910799772501</v>
       </c>
     </row>
     <row r="116" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA116" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB116" s="59" cm="1">
+      <c r="AA116" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB116" s="57" cm="1">
         <f t="array" ref="AB116">_FV(A1,"Price")</f>
-        <v>673.58</v>
+        <v>680.45</v>
       </c>
     </row>
     <row r="117" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA117" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB117" s="46">
+      <c r="AA117" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB117" s="44">
         <f>AB115/AB116-1</f>
-        <v>-0.12060061338011518</v>
+        <v>-3.1745009923249357E-2</v>
       </c>
     </row>
     <row r="118" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA118" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB118" s="47" t="str">
+      <c r="AA118" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB118" s="45" t="str">
         <f>IF(AB115&gt;AB116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -12437,8 +12790,9 @@
     <hyperlink ref="Z36" r:id="rId50" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000095017023004343/0000950170-23-004343-index.htm" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
     <hyperlink ref="Z74" r:id="rId51" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000095017023004343/0000950170-23-004343-index.htm" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
     <hyperlink ref="AA1" r:id="rId52" display="https://finbox.com/NYSE:BLK/explorer/revenue_proj" xr:uid="{4F0CB063-8400-0A44-9D90-964CA39A1B87}"/>
+    <hyperlink ref="AF106" r:id="rId53" xr:uid="{94AF886E-F849-1C40-BCDD-3CC0CFCA91EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId53"/>
+  <drawing r:id="rId54"/>
 </worksheet>
 </file>
--- a/Financial Services/BlackRock.xlsx
+++ b/Financial Services/BlackRock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FE0673-62EB-D84F-A979-5318A3E3B692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277302DC-D4DF-E142-8E30-8AC65D1C63A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -750,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -880,41 +880,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -928,7 +893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -985,63 +950,13 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1059,43 +974,71 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2405,7 +2348,7 @@
       <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.739E-2</v>
+            <v>3.7190000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2545,9 +2488,9 @@
     <v>Powered by Refinitiv</v>
     <v>785.65</v>
     <v>503.12360000000001</v>
-    <v>1.2856000000000001</v>
-    <v>1.07</v>
-    <v>1.575E-3</v>
+    <v>1.2867999999999999</v>
+    <v>4.47</v>
+    <v>6.5719999999999997E-3</v>
     <v>USD</v>
     <v>BlackRock, Inc. is an investment management company. The Company provides a range of investment management and technology services to institutional and retail clients. Its diverse platform of alpha-seeking active, index and cash management investment strategies across asset classes enables the Company to tailor investment outcomes and asset allocation solutions for clients. The Company's product offerings include single- and multi-asset portfolios investing in equities, fixed income, alternatives and money market instruments. Its products are offered directly and through intermediaries in a range of vehicles, including open-end and closed-end mutual funds, iShares exchange-traded funds (ETFs), separate accounts, collective investment funds and other pooled investment vehicles. The Company also offers technology services, including the investment and risk management technology platform, Aladdin, Aladdin Wealth, eFront, and Cachematrix, as well as advisory services and solutions.</v>
     <v>19500</v>
@@ -2555,24 +2498,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>50 Hudson Yards, NEW YORK, NY, 10001 US</v>
-    <v>682.93</v>
+    <v>688.34</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>45100.997072175778</v>
+    <v>45104.978716678124</v>
     <v>0</v>
-    <v>670</v>
-    <v>101906000000</v>
+    <v>677.76</v>
+    <v>101864100000</v>
     <v>BLACKROCK, INC.</v>
     <v>BLACKROCK, INC.</v>
-    <v>670.35</v>
-    <v>21.101500000000001</v>
-    <v>679.38</v>
-    <v>680.45</v>
+    <v>683.43</v>
+    <v>21.231400000000001</v>
+    <v>680.17</v>
+    <v>684.64</v>
     <v>149762600</v>
     <v>BLK</v>
     <v>BLACKROCK, INC. (XNYS:BLK)</v>
-    <v>46</v>
-    <v>710067</v>
+    <v>27</v>
+    <v>681193</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -3142,10 +3085,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A107" sqref="A105:A107"/>
+      <selection pane="bottomRight" activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4718,17 +4661,17 @@
         <f>(Z35+Y35+X35+W35+V35)/5</f>
         <v>-1.5004940578522663E-2</v>
       </c>
-      <c r="AG16" s="59">
+      <c r="AG16" s="35">
         <f>AH100/Z3</f>
-        <v>5.7016729144519669</v>
-      </c>
-      <c r="AH16" s="59">
+        <v>5.699328596206569</v>
+      </c>
+      <c r="AH16" s="35">
         <f>AH100/Z28</f>
-        <v>19.68057164928544</v>
-      </c>
-      <c r="AI16" s="61">
+        <v>19.672479721900348</v>
+      </c>
+      <c r="AI16" s="37">
         <f>AH100/Z107</f>
-        <v>23.040018087271083</v>
+        <v>23.030544879041376</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4982,36 +4925,36 @@
       <c r="Z19" s="10">
         <v>6837000000</v>
       </c>
-      <c r="AA19" s="65">
+      <c r="AA19" s="41">
         <v>7213000000</v>
       </c>
-      <c r="AB19" s="65">
+      <c r="AB19" s="41">
         <v>8214000000</v>
       </c>
-      <c r="AC19" s="65">
+      <c r="AC19" s="41">
         <v>8798000000</v>
       </c>
-      <c r="AD19" s="65">
+      <c r="AD19" s="41">
         <v>7400000000</v>
       </c>
-      <c r="AE19" s="65">
+      <c r="AE19" s="41">
         <v>8400000000</v>
       </c>
-      <c r="AF19" s="46">
+      <c r="AF19" s="34">
         <f>Z40-Z56-Z61</f>
         <v>5557000000</v>
       </c>
-      <c r="AG19" s="59">
+      <c r="AG19" s="35">
         <f>AH100/AA3</f>
-        <v>5.6186800463141644</v>
-      </c>
-      <c r="AH19" s="60">
+        <v>5.6163698516844018</v>
+      </c>
+      <c r="AH19" s="36">
         <f>AH100/AA28</f>
-        <v>19.282119205298013</v>
-      </c>
-      <c r="AI19" s="61">
+        <v>19.27419110690634</v>
+      </c>
+      <c r="AI19" s="37">
         <f>AH100/AA106</f>
-        <v>19.065668849391955</v>
+        <v>19.057829747427501</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5223,23 +5166,23 @@
       <c r="Z21" s="2">
         <v>0.38250000000000001</v>
       </c>
-      <c r="AA21" s="66">
+      <c r="AA21" s="42">
         <f>AA19/AA3</f>
         <v>0.39769531896123944</v>
       </c>
-      <c r="AB21" s="66">
+      <c r="AB21" s="42">
         <f t="shared" ref="AB21:AE21" si="13">AB19/AB3</f>
         <v>0.40886012941762073</v>
       </c>
-      <c r="AC21" s="66">
+      <c r="AC21" s="42">
         <f t="shared" si="13"/>
         <v>0.39990909090909094</v>
       </c>
-      <c r="AD21" s="66">
+      <c r="AD21" s="42">
         <f t="shared" si="13"/>
         <v>0.35238095238095241</v>
       </c>
-      <c r="AE21" s="66">
+      <c r="AE21" s="42">
         <f t="shared" si="13"/>
         <v>0.36657211433558806</v>
       </c>
@@ -5329,13 +5272,13 @@
       <c r="Z22" s="10">
         <v>6489000000</v>
       </c>
-      <c r="AH22" s="62">
+      <c r="AH22" s="38">
         <f>-1*Z98/AH100</f>
-        <v>2.9340765018742762E-2</v>
-      </c>
-      <c r="AI22" s="63">
+        <v>2.9352833824674247E-2</v>
+      </c>
+      <c r="AI22" s="39">
         <f>Z107/AH100</f>
-        <v>4.3402743704983024E-2</v>
+        <v>4.3420596657703744E-2</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -5817,19 +5760,19 @@
       <c r="Z28" s="11">
         <v>5178000000</v>
       </c>
-      <c r="AA28" s="67">
+      <c r="AA28" s="43">
         <v>5285000000</v>
       </c>
-      <c r="AB28" s="67">
+      <c r="AB28" s="43">
         <v>6095000000</v>
       </c>
-      <c r="AC28" s="67">
+      <c r="AC28" s="43">
         <v>6819000000</v>
       </c>
-      <c r="AD28" s="67">
+      <c r="AD28" s="43">
         <v>6810000000</v>
       </c>
-      <c r="AE28" s="67">
+      <c r="AE28" s="43">
         <v>7240000000</v>
       </c>
     </row>
@@ -6041,23 +5984,23 @@
       <c r="Z30" s="2">
         <v>0.28970000000000001</v>
       </c>
-      <c r="AA30" s="68">
+      <c r="AA30" s="44">
         <f>AA28/AA3</f>
         <v>0.29139328444615981</v>
       </c>
-      <c r="AB30" s="68">
+      <c r="AB30" s="44">
         <f t="shared" ref="AB30:AE30" si="24">AB28/AB3</f>
         <v>0.30338476854156299</v>
       </c>
-      <c r="AC30" s="68">
+      <c r="AC30" s="44">
         <f t="shared" si="24"/>
         <v>0.30995454545454543</v>
       </c>
-      <c r="AD30" s="68">
+      <c r="AD30" s="44">
         <f t="shared" si="24"/>
         <v>0.32428571428571429</v>
       </c>
-      <c r="AE30" s="68">
+      <c r="AE30" s="44">
         <f t="shared" si="24"/>
         <v>0.31595025092734019</v>
       </c>
@@ -6141,19 +6084,19 @@
       <c r="Z31" s="12">
         <v>33.74</v>
       </c>
-      <c r="AA31" s="69">
+      <c r="AA31" s="45">
         <v>35.29</v>
       </c>
-      <c r="AB31" s="69">
+      <c r="AB31" s="45">
         <v>40.700000000000003</v>
       </c>
-      <c r="AC31" s="69">
+      <c r="AC31" s="45">
         <v>45.53</v>
       </c>
-      <c r="AD31" s="69">
+      <c r="AD31" s="45">
         <v>45.47</v>
       </c>
-      <c r="AE31" s="69">
+      <c r="AE31" s="45">
         <v>48.34</v>
       </c>
     </row>
@@ -10293,10 +10236,10 @@
       <c r="Z82" s="1">
         <v>416000000</v>
       </c>
-      <c r="AG82" s="73" t="s">
+      <c r="AG82" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="AH82" s="74"/>
+      <c r="AH82" s="70"/>
     </row>
     <row r="83" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
@@ -10377,10 +10320,10 @@
       <c r="Z83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AG83" s="77" t="s">
+      <c r="AG83" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="AH83" s="78"/>
+      <c r="AH83" s="72"/>
     </row>
     <row r="84" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -11106,10 +11049,10 @@
       <c r="Z91" s="1">
         <v>-824000000</v>
       </c>
-      <c r="AG91" s="52" t="s">
+      <c r="AG91" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="AH91" s="53">
+      <c r="AH91" s="51">
         <f>AH87*(1-AH90)</f>
         <v>1.8050320309270004E-2</v>
       </c>
@@ -11193,10 +11136,10 @@
       <c r="Z92" s="1">
         <v>242000000</v>
       </c>
-      <c r="AG92" s="75" t="s">
+      <c r="AG92" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="AH92" s="76"/>
+      <c r="AH92" s="71"/>
     </row>
     <row r="93" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
@@ -11280,9 +11223,9 @@
       <c r="AG93" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="AH93" s="54">
+      <c r="AH93" s="52">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.739E-2</v>
+        <v>3.7190000000000001E-2</v>
       </c>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -11367,9 +11310,9 @@
       <c r="AG94" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="AH94" s="55" cm="1">
+      <c r="AH94" s="53" cm="1">
         <f t="array" ref="AH94">_FV(A1,"Beta")</f>
-        <v>1.2856000000000001</v>
+        <v>1.2867999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -11454,7 +11397,7 @@
       <c r="AG95" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="AH95" s="54">
+      <c r="AH95" s="52">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -11537,12 +11480,12 @@
       <c r="Z96" s="1">
         <v>576000000</v>
       </c>
-      <c r="AG96" s="52" t="s">
+      <c r="AG96" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="AH96" s="53">
+      <c r="AH96" s="51">
         <f>(AH93)+((AH94)*(AH95-AH93))</f>
-        <v>9.7311816000000009E-2</v>
+        <v>9.742510800000001E-2</v>
       </c>
     </row>
     <row r="97" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -11624,10 +11567,10 @@
       <c r="Z97" s="1">
         <v>-2332000000</v>
       </c>
-      <c r="AG97" s="75" t="s">
+      <c r="AG97" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="AH97" s="76"/>
+      <c r="AH97" s="71"/>
     </row>
     <row r="98" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
@@ -11800,7 +11743,7 @@
       </c>
       <c r="AH99" s="51">
         <f>AH98/AH102</f>
-        <v>8.3834542528611625E-2</v>
+        <v>8.3866134360292513E-2</v>
       </c>
     </row>
     <row r="100" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -11885,9 +11828,9 @@
       <c r="AG100" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="AH100" s="41" cm="1">
+      <c r="AH100" s="32" cm="1">
         <f t="array" ref="AH100">_FV(A1,"Market cap",TRUE)</f>
-        <v>101906000000</v>
+        <v>101864100000</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -11974,7 +11917,7 @@
       </c>
       <c r="AH101" s="51">
         <f>AH100/AH102</f>
-        <v>0.91616545747138833</v>
+        <v>0.91613386563970745</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -12056,12 +11999,12 @@
       <c r="Z102" s="10">
         <v>-1907000000</v>
       </c>
-      <c r="AG102" s="52" t="s">
+      <c r="AG102" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="AH102" s="56">
+      <c r="AH102" s="54">
         <f>AH98+AH100</f>
-        <v>111231000000</v>
+        <v>111189100000</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -12143,10 +12086,10 @@
       <c r="Z103" s="1">
         <v>9340000000</v>
       </c>
-      <c r="AG103" s="77" t="s">
+      <c r="AG103" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="AH103" s="78"/>
+      <c r="AH103" s="72"/>
     </row>
     <row r="104" spans="1:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
@@ -12227,12 +12170,12 @@
       <c r="Z104" s="11">
         <v>7433000000</v>
       </c>
-      <c r="AG104" s="25" t="s">
+      <c r="AG104" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="AH104" s="26">
+      <c r="AH104" s="56">
         <f>(AH99*AH91)+(AH101*AH96)</f>
-        <v>9.0666964768634131E-2</v>
+        <v>9.0768251390709542E-2</v>
       </c>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
@@ -12362,10 +12305,10 @@
       <c r="AF105" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="AG105" s="79" t="s">
+      <c r="AG105" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="AH105" s="80"/>
+      <c r="AH105" s="73"/>
       <c r="AI105" s="15"/>
       <c r="AJ105" s="15"/>
       <c r="AK105" s="15"/>
@@ -12485,34 +12428,34 @@
         <f t="shared" si="34"/>
         <v>-3.9104931566369738E-2</v>
       </c>
-      <c r="AA106" s="64">
+      <c r="AA106" s="40">
         <v>5345000000</v>
       </c>
-      <c r="AB106" s="64">
+      <c r="AB106" s="40">
         <v>6080000000</v>
       </c>
-      <c r="AC106" s="64">
+      <c r="AC106" s="40">
         <v>6662000000</v>
       </c>
-      <c r="AD106" s="64">
+      <c r="AD106" s="40">
         <v>5700000000</v>
       </c>
-      <c r="AE106" s="64">
+      <c r="AE106" s="40">
         <v>6332000000</v>
       </c>
       <c r="AF106" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="AG106" s="32" t="s">
+      <c r="AG106" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="AH106" s="33">
+      <c r="AH106" s="58">
         <f>(SUM(AA4:AE4)/5)</f>
         <v>5.265188433370098E-2</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="81" t="s">
+      <c r="A107" s="47" t="s">
         <v>166</v>
       </c>
       <c r="B107" s="1">
@@ -12594,135 +12537,135 @@
       <c r="AB107" s="31"/>
       <c r="AC107" s="31"/>
       <c r="AD107" s="31"/>
-      <c r="AE107" s="70">
+      <c r="AE107" s="46">
         <f>AE106*(1+AH107)/(AH108-AH107)</f>
-        <v>98836607156.542374</v>
-      </c>
-      <c r="AF107" s="35" t="s">
+        <v>98684393499.274658</v>
+      </c>
+      <c r="AF107" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="AG107" s="36" t="s">
+      <c r="AG107" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="AH107" s="37">
+      <c r="AH107" s="60">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AA108" s="34">
+      <c r="AA108" s="32">
         <f t="shared" ref="AA108:AC108" si="35">AA107+AA106</f>
         <v>5345000000</v>
       </c>
-      <c r="AB108" s="34">
+      <c r="AB108" s="32">
         <f t="shared" si="35"/>
         <v>6080000000</v>
       </c>
-      <c r="AC108" s="34">
+      <c r="AC108" s="32">
         <f t="shared" si="35"/>
         <v>6662000000</v>
       </c>
-      <c r="AD108" s="34">
+      <c r="AD108" s="32">
         <f>AD107+AD106</f>
         <v>5700000000</v>
       </c>
-      <c r="AE108" s="70">
+      <c r="AE108" s="46">
         <f>AE107+AE106</f>
-        <v>105168607156.54237</v>
-      </c>
-      <c r="AF108" s="35" t="s">
+        <v>105016393499.27466</v>
+      </c>
+      <c r="AF108" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="AG108" s="38" t="s">
+      <c r="AG108" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="AH108" s="39">
+      <c r="AH108" s="58">
         <f>AH104</f>
-        <v>9.0666964768634131E-2</v>
+        <v>9.0768251390709542E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AA109" s="71" t="s">
+      <c r="AA109" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="AB109" s="72"/>
+      <c r="AB109" s="68"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA110" s="40" t="s">
+      <c r="AA110" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="AB110" s="41">
+      <c r="AB110" s="32">
         <f>NPV(AH108,AA108,AB108,AC108,AD108,AE108)</f>
-        <v>87318478371.475784</v>
+        <v>87183934749.102219</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA111" s="40" t="s">
+      <c r="AA111" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="AB111" s="41">
+      <c r="AB111" s="32">
         <f>Z40</f>
         <v>14882000000</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA112" s="40" t="s">
+      <c r="AA112" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="AB112" s="41">
+      <c r="AB112" s="32">
         <f>AH98</f>
         <v>9325000000</v>
       </c>
     </row>
     <row r="113" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA113" s="40" t="s">
+      <c r="AA113" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="AB113" s="41">
+      <c r="AB113" s="32">
         <f>AB110+AB111-AB112</f>
-        <v>92875478371.475784</v>
+        <v>92740934749.102219</v>
       </c>
     </row>
     <row r="114" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA114" s="40" t="s">
+      <c r="AA114" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="AB114" s="47">
+      <c r="AB114" s="62">
         <f>Z34*(1+(5*AF16))</f>
         <v>140966235.27916574</v>
       </c>
     </row>
     <row r="115" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA115" s="42" t="s">
+      <c r="AA115" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="AB115" s="58">
+      <c r="AB115" s="64">
         <f>AB113/AB114</f>
-        <v>658.84910799772501</v>
+        <v>657.89466935426458</v>
       </c>
     </row>
     <row r="116" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA116" s="40" t="s">
+      <c r="AA116" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="AB116" s="57" cm="1">
+      <c r="AB116" s="65" cm="1">
         <f t="array" ref="AB116">_FV(A1,"Price")</f>
-        <v>680.45</v>
+        <v>684.64</v>
       </c>
     </row>
     <row r="117" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA117" s="43" t="s">
+      <c r="AA117" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="AB117" s="44">
+      <c r="AB117" s="66">
         <f>AB115/AB116-1</f>
-        <v>-3.1745009923249357E-2</v>
+        <v>-3.9064808725367217E-2</v>
       </c>
     </row>
     <row r="118" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA118" s="43" t="s">
+      <c r="AA118" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="AB118" s="45" t="str">
+      <c r="AB118" s="67" t="str">
         <f>IF(AB115&gt;AB116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Financial Services/BlackRock.xlsx
+++ b/Financial Services/BlackRock.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277302DC-D4DF-E142-8E30-8AC65D1C63A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350441FF-9B67-4343-8A0A-23975E974031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -574,6 +574,9 @@
   </si>
   <si>
     <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
   </si>
 </sst>
 </file>
@@ -750,7 +753,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -856,24 +859,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -893,7 +878,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -935,17 +920,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -957,7 +934,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -974,7 +951,7 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1022,6 +999,8 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2311,9 +2290,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2322,19 +2299,27 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Fidelity Growth"/>
+      <sheetName val="IRA"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Best Mature"/>
       <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
-      <sheetName val="Private Companies"/>
+      <sheetName val="Hedge Fund Portfolio"/>
+      <sheetName val="Scored Portfolio"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.3220000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2345,13 +2330,7 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="8">
-          <cell r="C8">
-            <v>3.7190000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
@@ -2488,34 +2467,35 @@
     <v>Powered by Refinitiv</v>
     <v>785.65</v>
     <v>503.12360000000001</v>
-    <v>1.2867999999999999</v>
-    <v>4.47</v>
-    <v>6.5719999999999997E-3</v>
+    <v>1.3010999999999999</v>
+    <v>-2.52</v>
+    <v>-3.6129999999999999E-3</v>
     <v>USD</v>
     <v>BlackRock, Inc. is an investment management company. The Company provides a range of investment management and technology services to institutional and retail clients. Its diverse platform of alpha-seeking active, index and cash management investment strategies across asset classes enables the Company to tailor investment outcomes and asset allocation solutions for clients. The Company's product offerings include single- and multi-asset portfolios investing in equities, fixed income, alternatives and money market instruments. Its products are offered directly and through intermediaries in a range of vehicles, including open-end and closed-end mutual funds, iShares exchange-traded funds (ETFs), separate accounts, collective investment funds and other pooled investment vehicles. The Company also offers technology services, including the investment and risk management technology platform, Aladdin, Aladdin Wealth, eFront, and Cachematrix, as well as advisory services and solutions.</v>
-    <v>19500</v>
+    <v>19300</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>50 Hudson Yards, NEW YORK, NY, 10001 US</v>
-    <v>688.34</v>
+    <v>699.48</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>45104.978716678124</v>
+    <v>45187.987287279684</v>
     <v>0</v>
-    <v>677.76</v>
-    <v>101864100000</v>
+    <v>690.06</v>
+    <v>103748883714</v>
     <v>BLACKROCK, INC.</v>
     <v>BLACKROCK, INC.</v>
-    <v>683.43</v>
-    <v>21.231400000000001</v>
-    <v>680.17</v>
-    <v>684.64</v>
-    <v>149762600</v>
+    <v>696.32</v>
+    <v>20.290900000000001</v>
+    <v>697.41</v>
+    <v>694.89</v>
+    <v>694.89</v>
+    <v>149302600</v>
     <v>BLK</v>
     <v>BLACKROCK, INC. (XNYS:BLK)</v>
-    <v>27</v>
-    <v>681193</v>
+    <v>65</v>
+    <v>560776</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2567,6 +2547,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2583,7 +2564,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="43">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2594,6 +2575,7 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
@@ -2666,13 +2648,15 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2717,6 +2701,7 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2724,6 +2709,7 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3085,10 +3071,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB13" sqref="AB13"/>
+      <selection pane="bottomRight" activeCell="AB96" sqref="AB96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3177,19 +3163,19 @@
       <c r="Z1" s="8">
         <v>2022</v>
       </c>
-      <c r="AA1" s="27">
+      <c r="AA1" s="23">
         <v>2023</v>
       </c>
-      <c r="AB1" s="27">
+      <c r="AB1" s="23">
         <v>2024</v>
       </c>
-      <c r="AC1" s="27">
+      <c r="AC1" s="23">
         <v>2025</v>
       </c>
-      <c r="AD1" s="27">
+      <c r="AD1" s="23">
         <v>2026</v>
       </c>
-      <c r="AE1" s="27">
+      <c r="AE1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3365,19 +3351,19 @@
       <c r="Z3" s="1">
         <v>17873000000</v>
       </c>
-      <c r="AA3" s="28">
+      <c r="AA3" s="24">
         <v>18137000000</v>
       </c>
-      <c r="AB3" s="28">
+      <c r="AB3" s="24">
         <v>20090000000</v>
       </c>
-      <c r="AC3" s="28">
+      <c r="AC3" s="24">
         <v>22000000000</v>
       </c>
-      <c r="AD3" s="28">
+      <c r="AD3" s="24">
         <v>21000000000</v>
       </c>
-      <c r="AE3" s="28">
+      <c r="AE3" s="24">
         <v>22915000000</v>
       </c>
       <c r="AF3" s="18" t="s">
@@ -3398,99 +3384,99 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="65">
         <f>(C3/B3)-1</f>
         <v>0.11561054172767204</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="65">
         <f>(D3/C3)-1</f>
         <v>0.25169496641564804</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="65">
         <f>(E3/D3)-1</f>
         <v>0.11800231508664805</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="65">
         <f t="shared" ref="F4:AE4" si="0">(F3/E3)-1</f>
         <v>8.2216061701904097E-2</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="65">
         <f t="shared" si="0"/>
         <v>3.6803893396097243E-2</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="65">
         <f t="shared" si="0"/>
         <v>0.21246481180584809</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="65">
         <f t="shared" si="0"/>
         <v>0.64258642154882528</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="65">
         <f t="shared" si="0"/>
         <v>0.76095404847799109</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="65">
         <f t="shared" si="0"/>
         <v>1.3092042044332253</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="65">
         <f t="shared" si="0"/>
         <v>4.5275669784535788E-2</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="65">
         <f t="shared" si="0"/>
         <v>-7.1879936808846745E-2</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="65">
         <f t="shared" si="0"/>
         <v>0.8323404255319149</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="65">
         <f t="shared" si="0"/>
         <v>5.4458894565722282E-2</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="65">
         <f t="shared" si="0"/>
         <v>2.8190727893403711E-2</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="65">
         <f t="shared" si="0"/>
         <v>9.0285959087501366E-2</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="65">
         <f t="shared" si="0"/>
         <v>8.8506876227897768E-2</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="65">
         <f t="shared" si="0"/>
         <v>2.8878260084829854E-2</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="65">
         <f t="shared" si="0"/>
         <v>-2.1577054644329463E-2</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="65">
         <f t="shared" si="0"/>
         <v>0.11976692066337957</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="65">
         <f t="shared" si="0"/>
         <v>0.13665839404371138</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="65">
         <f t="shared" si="0"/>
         <v>2.4017467248908186E-2</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="65">
         <f t="shared" si="0"/>
         <v>0.11458834857968214</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="65">
         <f t="shared" si="0"/>
         <v>0.1955569268744215</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="65">
         <f t="shared" si="0"/>
         <v>-7.7474966449881277E-2</v>
       </c>
@@ -4657,21 +4643,21 @@
       <c r="Z16" s="1">
         <v>11384000000</v>
       </c>
-      <c r="AF16" s="29">
+      <c r="AF16" s="25">
         <f>(Z35+Y35+X35+W35+V35)/5</f>
         <v>-1.5004940578522663E-2</v>
       </c>
-      <c r="AG16" s="35">
+      <c r="AG16" s="31">
         <f>AH100/Z3</f>
-        <v>5.699328596206569</v>
-      </c>
-      <c r="AH16" s="35">
+        <v>5.8047828408213507</v>
+      </c>
+      <c r="AH16" s="31">
         <f>AH100/Z28</f>
-        <v>19.672479721900348</v>
-      </c>
-      <c r="AI16" s="37">
+        <v>20.036478121668598</v>
+      </c>
+      <c r="AI16" s="33">
         <f>AH100/Z107</f>
-        <v>23.030544879041376</v>
+        <v>23.456677303640063</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4925,36 +4911,36 @@
       <c r="Z19" s="10">
         <v>6837000000</v>
       </c>
-      <c r="AA19" s="41">
+      <c r="AA19" s="37">
         <v>7213000000</v>
       </c>
-      <c r="AB19" s="41">
+      <c r="AB19" s="37">
         <v>8214000000</v>
       </c>
-      <c r="AC19" s="41">
+      <c r="AC19" s="37">
         <v>8798000000</v>
       </c>
-      <c r="AD19" s="41">
+      <c r="AD19" s="37">
         <v>7400000000</v>
       </c>
-      <c r="AE19" s="41">
+      <c r="AE19" s="37">
         <v>8400000000</v>
       </c>
-      <c r="AF19" s="34">
+      <c r="AF19" s="30">
         <f>Z40-Z56-Z61</f>
         <v>5557000000</v>
       </c>
-      <c r="AG19" s="35">
+      <c r="AG19" s="31">
         <f>AH100/AA3</f>
-        <v>5.6163698516844018</v>
-      </c>
-      <c r="AH19" s="36">
+        <v>5.720289116943265</v>
+      </c>
+      <c r="AH19" s="32">
         <f>AH100/AA28</f>
-        <v>19.27419110690634</v>
-      </c>
-      <c r="AI19" s="37">
+        <v>19.630820002649006</v>
+      </c>
+      <c r="AI19" s="33">
         <f>AH100/AA106</f>
-        <v>19.057829747427501</v>
+        <v>19.410455325350796</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5166,23 +5152,23 @@
       <c r="Z21" s="2">
         <v>0.38250000000000001</v>
       </c>
-      <c r="AA21" s="42">
+      <c r="AA21" s="38">
         <f>AA19/AA3</f>
         <v>0.39769531896123944</v>
       </c>
-      <c r="AB21" s="42">
+      <c r="AB21" s="38">
         <f t="shared" ref="AB21:AE21" si="13">AB19/AB3</f>
         <v>0.40886012941762073</v>
       </c>
-      <c r="AC21" s="42">
+      <c r="AC21" s="38">
         <f t="shared" si="13"/>
         <v>0.39990909090909094</v>
       </c>
-      <c r="AD21" s="42">
+      <c r="AD21" s="38">
         <f t="shared" si="13"/>
         <v>0.35238095238095241</v>
       </c>
-      <c r="AE21" s="42">
+      <c r="AE21" s="38">
         <f t="shared" si="13"/>
         <v>0.36657211433558806</v>
       </c>
@@ -5272,13 +5258,13 @@
       <c r="Z22" s="10">
         <v>6489000000</v>
       </c>
-      <c r="AH22" s="38">
+      <c r="AH22" s="34">
         <f>-1*Z98/AH100</f>
-        <v>2.9352833824674247E-2</v>
-      </c>
-      <c r="AI22" s="39">
+        <v>2.8819587189414027E-2</v>
+      </c>
+      <c r="AI22" s="35">
         <f>Z107/AH100</f>
-        <v>4.3420596657703744E-2</v>
+        <v>4.2631783992902419E-2</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -5760,19 +5746,19 @@
       <c r="Z28" s="11">
         <v>5178000000</v>
       </c>
-      <c r="AA28" s="43">
+      <c r="AA28" s="39">
         <v>5285000000</v>
       </c>
-      <c r="AB28" s="43">
+      <c r="AB28" s="39">
         <v>6095000000</v>
       </c>
-      <c r="AC28" s="43">
+      <c r="AC28" s="39">
         <v>6819000000</v>
       </c>
-      <c r="AD28" s="43">
+      <c r="AD28" s="39">
         <v>6810000000</v>
       </c>
-      <c r="AE28" s="43">
+      <c r="AE28" s="39">
         <v>7240000000</v>
       </c>
     </row>
@@ -5984,23 +5970,23 @@
       <c r="Z30" s="2">
         <v>0.28970000000000001</v>
       </c>
-      <c r="AA30" s="44">
+      <c r="AA30" s="40">
         <f>AA28/AA3</f>
         <v>0.29139328444615981</v>
       </c>
-      <c r="AB30" s="44">
+      <c r="AB30" s="40">
         <f t="shared" ref="AB30:AE30" si="24">AB28/AB3</f>
         <v>0.30338476854156299</v>
       </c>
-      <c r="AC30" s="44">
+      <c r="AC30" s="40">
         <f t="shared" si="24"/>
         <v>0.30995454545454543</v>
       </c>
-      <c r="AD30" s="44">
+      <c r="AD30" s="40">
         <f t="shared" si="24"/>
         <v>0.32428571428571429</v>
       </c>
-      <c r="AE30" s="44">
+      <c r="AE30" s="40">
         <f t="shared" si="24"/>
         <v>0.31595025092734019</v>
       </c>
@@ -6084,19 +6070,19 @@
       <c r="Z31" s="12">
         <v>33.74</v>
       </c>
-      <c r="AA31" s="45">
+      <c r="AA31" s="41">
         <v>35.29</v>
       </c>
-      <c r="AB31" s="45">
+      <c r="AB31" s="41">
         <v>40.700000000000003</v>
       </c>
-      <c r="AC31" s="45">
+      <c r="AC31" s="41">
         <v>45.53</v>
       </c>
-      <c r="AD31" s="45">
+      <c r="AD31" s="41">
         <v>45.47</v>
       </c>
-      <c r="AE31" s="45">
+      <c r="AE31" s="41">
         <v>48.34</v>
       </c>
     </row>
@@ -10077,7 +10063,7 @@
       <c r="AK80" s="15"/>
       <c r="AL80" s="15"/>
     </row>
-    <row r="81" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>69</v>
       </c>
@@ -10157,7 +10143,7 @@
         <v>-1766000000</v>
       </c>
     </row>
-    <row r="82" spans="1:46" ht="21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" ht="21" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>70</v>
       </c>
@@ -10236,12 +10222,12 @@
       <c r="Z82" s="1">
         <v>416000000</v>
       </c>
-      <c r="AG82" s="69" t="s">
+      <c r="AG82" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="AH82" s="70"/>
+      <c r="AH82" s="68"/>
     </row>
-    <row r="83" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -10320,12 +10306,12 @@
       <c r="Z83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AG83" s="72" t="s">
+      <c r="AG83" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="AH83" s="72"/>
+      <c r="AH83" s="70"/>
     </row>
-    <row r="84" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -10404,15 +10390,15 @@
       <c r="Z84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AG84" s="48" t="s">
+      <c r="AG84" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="AH84" s="49">
+      <c r="AH84" s="45">
         <f>Z17</f>
         <v>212000000</v>
       </c>
     </row>
-    <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -10491,15 +10477,15 @@
       <c r="Z85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AG85" s="48" t="s">
+      <c r="AG85" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="AH85" s="49">
+      <c r="AH85" s="45">
         <f>Z56</f>
         <v>1835000000</v>
       </c>
     </row>
-    <row r="86" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>72</v>
       </c>
@@ -10578,15 +10564,15 @@
       <c r="Z86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AG86" s="48" t="s">
+      <c r="AG86" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="AH86" s="49">
+      <c r="AH86" s="45">
         <f>Z61</f>
         <v>7490000000</v>
       </c>
     </row>
-    <row r="87" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>73</v>
       </c>
@@ -10665,15 +10651,15 @@
       <c r="Z87" s="10">
         <v>4956000000</v>
       </c>
-      <c r="AG87" s="50" t="s">
+      <c r="AG87" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="AH87" s="51">
+      <c r="AH87" s="47">
         <f>AH84/(AH85+AH86)</f>
         <v>2.2734584450402145E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>74</v>
       </c>
@@ -10752,15 +10738,15 @@
       <c r="Z88" s="1">
         <v>-533000000</v>
       </c>
-      <c r="AG88" s="48" t="s">
+      <c r="AG88" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="AH88" s="49">
+      <c r="AH88" s="45">
         <f>Z27</f>
         <v>1296000000</v>
       </c>
     </row>
-    <row r="89" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>104</v>
       </c>
@@ -10864,10 +10850,10 @@
         <f t="shared" si="31"/>
         <v>2.9821518491579477E-2</v>
       </c>
-      <c r="AG89" s="48" t="s">
+      <c r="AG89" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AH89" s="49">
+      <c r="AH89" s="45">
         <f>Z25</f>
         <v>6290000000</v>
       </c>
@@ -10875,15 +10861,8 @@
       <c r="AJ89" s="15"/>
       <c r="AK89" s="15"/>
       <c r="AL89" s="15"/>
-      <c r="AS89" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="AT89" s="24">
-        <f>AL27</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="90" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>75</v>
       </c>
@@ -10962,15 +10941,15 @@
       <c r="Z90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AG90" s="50" t="s">
+      <c r="AG90" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="AH90" s="51">
+      <c r="AH90" s="47">
         <f>AH88/AH89</f>
         <v>0.20604133545310016</v>
       </c>
     </row>
-    <row r="91" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>76</v>
       </c>
@@ -11049,15 +11028,15 @@
       <c r="Z91" s="1">
         <v>-824000000</v>
       </c>
-      <c r="AG91" s="50" t="s">
+      <c r="AG91" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="AH91" s="51">
+      <c r="AH91" s="47">
         <f>AH87*(1-AH90)</f>
         <v>1.8050320309270004E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>77</v>
       </c>
@@ -11136,12 +11115,12 @@
       <c r="Z92" s="1">
         <v>242000000</v>
       </c>
-      <c r="AG92" s="71" t="s">
+      <c r="AG92" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="AH92" s="71"/>
+      <c r="AH92" s="69"/>
     </row>
-    <row r="93" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -11220,15 +11199,15 @@
       <c r="Z93" s="1">
         <v>-15000000</v>
       </c>
-      <c r="AG93" s="48" t="s">
+      <c r="AG93" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="AH93" s="52">
+      <c r="AH93" s="48">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7190000000000001E-2</v>
+        <v>4.3220000000000001E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -11307,15 +11286,15 @@
       <c r="Z94" s="10">
         <v>-1130000000</v>
       </c>
-      <c r="AG94" s="48" t="s">
+      <c r="AG94" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="AH94" s="53" cm="1">
+      <c r="AH94" s="49" cm="1">
         <f t="array" ref="AH94">_FV(A1,"Beta")</f>
-        <v>1.2867999999999999</v>
+        <v>1.3010999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>80</v>
       </c>
@@ -11394,14 +11373,14 @@
       <c r="Z95" s="1">
         <v>-750000000</v>
       </c>
-      <c r="AG95" s="48" t="s">
+      <c r="AG95" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="AH95" s="52">
+      <c r="AH95" s="48">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>81</v>
       </c>
@@ -11480,15 +11459,15 @@
       <c r="Z96" s="1">
         <v>576000000</v>
       </c>
-      <c r="AG96" s="50" t="s">
+      <c r="AG96" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="AH96" s="51">
+      <c r="AH96" s="47">
         <f>(AH93)+((AH94)*(AH95-AH93))</f>
-        <v>9.742510800000001E-2</v>
+        <v>9.6278857999999995E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>82</v>
       </c>
@@ -11567,12 +11546,12 @@
       <c r="Z97" s="1">
         <v>-2332000000</v>
       </c>
-      <c r="AG97" s="71" t="s">
+      <c r="AG97" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="AH97" s="71"/>
+      <c r="AH97" s="69"/>
     </row>
-    <row r="98" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -11651,15 +11630,15 @@
       <c r="Z98" s="1">
         <v>-2990000000</v>
       </c>
-      <c r="AG98" s="48" t="s">
+      <c r="AG98" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="AH98" s="49">
+      <c r="AH98" s="45">
         <f>AH85+AH86</f>
         <v>9325000000</v>
       </c>
     </row>
-    <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -11738,15 +11717,15 @@
       <c r="Z99" s="1">
         <v>54000000</v>
       </c>
-      <c r="AG99" s="50" t="s">
+      <c r="AG99" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="AH99" s="51">
+      <c r="AH99" s="47">
         <f>AH98/AH102</f>
-        <v>8.3866134360292513E-2</v>
+        <v>8.2468203034273643E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>85</v>
       </c>
@@ -11825,15 +11804,15 @@
       <c r="Z100" s="10">
         <v>-5442000000</v>
       </c>
-      <c r="AG100" s="48" t="s">
+      <c r="AG100" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="AH100" s="32" cm="1">
+      <c r="AH100" s="28" cm="1">
         <f t="array" ref="AH100">_FV(A1,"Market cap",TRUE)</f>
-        <v>101864100000</v>
+        <v>103748883714</v>
       </c>
     </row>
-    <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>86</v>
       </c>
@@ -11912,15 +11891,15 @@
       <c r="Z101" s="1">
         <v>-291000000</v>
       </c>
-      <c r="AG101" s="50" t="s">
+      <c r="AG101" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="AH101" s="51">
+      <c r="AH101" s="47">
         <f>AH100/AH102</f>
-        <v>0.91613386563970745</v>
+        <v>0.9175317969657264</v>
       </c>
     </row>
-    <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>87</v>
       </c>
@@ -11999,15 +11978,15 @@
       <c r="Z102" s="10">
         <v>-1907000000</v>
       </c>
-      <c r="AG102" s="50" t="s">
+      <c r="AG102" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="AH102" s="54">
+      <c r="AH102" s="50">
         <f>AH98+AH100</f>
-        <v>111189100000</v>
+        <v>113073883714</v>
       </c>
     </row>
-    <row r="103" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>88</v>
       </c>
@@ -12086,12 +12065,15 @@
       <c r="Z103" s="1">
         <v>9340000000</v>
       </c>
-      <c r="AG103" s="72" t="s">
+      <c r="AF103" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG103" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="AH103" s="72"/>
+      <c r="AH103" s="70"/>
     </row>
-    <row r="104" spans="1:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:38" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -12170,15 +12152,39 @@
       <c r="Z104" s="11">
         <v>7433000000</v>
       </c>
-      <c r="AG104" s="55" t="s">
+      <c r="AA104" s="64">
+        <f>(AA106/Z107)-1</f>
+        <v>0.20845579923129098</v>
+      </c>
+      <c r="AB104" s="64">
+        <f>(AB106/AA106)-1</f>
+        <v>0.13751169317118794</v>
+      </c>
+      <c r="AC104" s="64">
+        <f>(AC106/AB106)-1</f>
+        <v>9.5723684210526239E-2</v>
+      </c>
+      <c r="AD104" s="64">
+        <f>(AD106/AC106)-1</f>
+        <v>-0.14440108075652958</v>
+      </c>
+      <c r="AE104" s="64">
+        <f>(AE106/AD106)-1</f>
+        <v>0.11087719298245613</v>
+      </c>
+      <c r="AF104" s="64">
+        <f>SUM(AA104:AE104)/5</f>
+        <v>8.1633457767786341E-2</v>
+      </c>
+      <c r="AG104" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="AH104" s="56">
+      <c r="AH104" s="52">
         <f>(AH99*AH91)+(AH101*AH96)</f>
-        <v>9.0768251390709542E-2</v>
+        <v>8.9827491070646553E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:38" ht="20" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>165</v>
       </c>
@@ -12282,52 +12288,39 @@
         <f>(Z22*(1-$AH$90))+Z77+Z88+Z81</f>
         <v>3270997774.244833</v>
       </c>
-      <c r="AA105" s="30">
+      <c r="AA105" s="26">
         <f>Z105*(1+$AH$106)</f>
         <v>3443221970.710165</v>
       </c>
-      <c r="AB105" s="30">
+      <c r="AB105" s="26">
         <f t="shared" ref="AB105:AE105" si="33">AA105*(1+$AH$106)</f>
         <v>3624514095.6472545</v>
       </c>
-      <c r="AC105" s="30">
+      <c r="AC105" s="26">
         <f t="shared" si="33"/>
         <v>3815351592.5771422</v>
       </c>
-      <c r="AD105" s="30">
+      <c r="AD105" s="26">
         <f t="shared" si="33"/>
         <v>4016237043.3219156</v>
       </c>
-      <c r="AE105" s="30">
+      <c r="AE105" s="26">
         <f t="shared" si="33"/>
         <v>4227699491.5836263</v>
       </c>
-      <c r="AF105" s="31" t="s">
+      <c r="AF105" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="AG105" s="73" t="s">
+      <c r="AG105" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AH105" s="73"/>
+      <c r="AH105" s="71"/>
       <c r="AI105" s="15"/>
       <c r="AJ105" s="15"/>
       <c r="AK105" s="15"/>
       <c r="AL105" s="15"/>
-      <c r="AM105" s="15"/>
-      <c r="AN105" s="15"/>
-      <c r="AO105" s="15"/>
-      <c r="AP105" s="15"/>
-      <c r="AQ105" s="15"/>
-      <c r="AR105" s="15"/>
-      <c r="AS105" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="AT105" s="26">
-        <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>106</v>
       </c>
@@ -12428,34 +12421,34 @@
         <f t="shared" si="34"/>
         <v>-3.9104931566369738E-2</v>
       </c>
-      <c r="AA106" s="40">
+      <c r="AA106" s="36">
         <v>5345000000</v>
       </c>
-      <c r="AB106" s="40">
+      <c r="AB106" s="36">
         <v>6080000000</v>
       </c>
-      <c r="AC106" s="40">
+      <c r="AC106" s="36">
         <v>6662000000</v>
       </c>
-      <c r="AD106" s="40">
+      <c r="AD106" s="36">
         <v>5700000000</v>
       </c>
-      <c r="AE106" s="40">
+      <c r="AE106" s="36">
         <v>6332000000</v>
       </c>
-      <c r="AF106" s="31" t="s">
+      <c r="AF106" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="AG106" s="57" t="s">
+      <c r="AG106" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="AH106" s="58">
+      <c r="AH106" s="54">
         <f>(SUM(AA4:AE4)/5)</f>
         <v>5.265188433370098E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="47" t="s">
+    <row r="107" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="43" t="s">
         <v>166</v>
       </c>
       <c r="B107" s="1">
@@ -12533,139 +12526,139 @@
       <c r="Z107" s="1">
         <v>4423000000</v>
       </c>
-      <c r="AA107" s="31"/>
-      <c r="AB107" s="31"/>
-      <c r="AC107" s="31"/>
-      <c r="AD107" s="31"/>
-      <c r="AE107" s="46">
+      <c r="AA107" s="27"/>
+      <c r="AB107" s="27"/>
+      <c r="AC107" s="27"/>
+      <c r="AD107" s="27"/>
+      <c r="AE107" s="42">
         <f>AE106*(1+AH107)/(AH108-AH107)</f>
-        <v>98684393499.274658</v>
-      </c>
-      <c r="AF107" s="33" t="s">
+        <v>100116476710.89282</v>
+      </c>
+      <c r="AF107" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="AG107" s="59" t="s">
+      <c r="AG107" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="AH107" s="60">
+      <c r="AH107" s="56">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AA108" s="32">
+    <row r="108" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="AA108" s="28">
         <f t="shared" ref="AA108:AC108" si="35">AA107+AA106</f>
         <v>5345000000</v>
       </c>
-      <c r="AB108" s="32">
+      <c r="AB108" s="28">
         <f t="shared" si="35"/>
         <v>6080000000</v>
       </c>
-      <c r="AC108" s="32">
+      <c r="AC108" s="28">
         <f t="shared" si="35"/>
         <v>6662000000</v>
       </c>
-      <c r="AD108" s="32">
+      <c r="AD108" s="28">
         <f>AD107+AD106</f>
         <v>5700000000</v>
       </c>
-      <c r="AE108" s="46">
+      <c r="AE108" s="42">
         <f>AE107+AE106</f>
-        <v>105016393499.27466</v>
-      </c>
-      <c r="AF108" s="33" t="s">
+        <v>106448476710.89282</v>
+      </c>
+      <c r="AF108" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="AG108" s="61" t="s">
+      <c r="AG108" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="AH108" s="58">
+      <c r="AH108" s="54">
         <f>AH104</f>
-        <v>9.0768251390709542E-2</v>
+        <v>8.9827491070646553E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AA109" s="68" t="s">
+    <row r="109" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="AA109" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="AB109" s="68"/>
+      <c r="AB109" s="66"/>
     </row>
-    <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA110" s="62" t="s">
+    <row r="110" spans="1:38" ht="20" x14ac:dyDescent="0.25">
+      <c r="AA110" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="AB110" s="32">
+      <c r="AB110" s="28">
         <f>NPV(AH108,AA108,AB108,AC108,AD108,AE108)</f>
-        <v>87183934749.102219</v>
+        <v>88449770372.599258</v>
       </c>
     </row>
-    <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA111" s="62" t="s">
+    <row r="111" spans="1:38" ht="20" x14ac:dyDescent="0.25">
+      <c r="AA111" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="AB111" s="32">
+      <c r="AB111" s="28">
         <f>Z40</f>
         <v>14882000000</v>
       </c>
     </row>
-    <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA112" s="62" t="s">
+    <row r="112" spans="1:38" ht="20" x14ac:dyDescent="0.25">
+      <c r="AA112" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="AB112" s="32">
+      <c r="AB112" s="28">
         <f>AH98</f>
         <v>9325000000</v>
       </c>
     </row>
     <row r="113" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA113" s="62" t="s">
+      <c r="AA113" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="AB113" s="32">
+      <c r="AB113" s="28">
         <f>AB110+AB111-AB112</f>
-        <v>92740934749.102219</v>
+        <v>94006770372.599258</v>
       </c>
     </row>
     <row r="114" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA114" s="62" t="s">
+      <c r="AA114" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="AB114" s="62">
+      <c r="AB114" s="58">
         <f>Z34*(1+(5*AF16))</f>
         <v>140966235.27916574</v>
       </c>
     </row>
     <row r="115" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA115" s="63" t="s">
+      <c r="AA115" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="AB115" s="64">
+      <c r="AB115" s="60">
         <f>AB113/AB114</f>
-        <v>657.89466935426458</v>
+        <v>666.8743773034073</v>
       </c>
     </row>
     <row r="116" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA116" s="62" t="s">
+      <c r="AA116" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="AB116" s="65" cm="1">
+      <c r="AB116" s="61" cm="1">
         <f t="array" ref="AB116">_FV(A1,"Price")</f>
-        <v>684.64</v>
+        <v>694.89</v>
       </c>
     </row>
     <row r="117" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA117" s="63" t="s">
+      <c r="AA117" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="AB117" s="66">
+      <c r="AB117" s="62">
         <f>AB115/AB116-1</f>
-        <v>-3.9064808725367217E-2</v>
+        <v>-4.0316629533584725E-2</v>
       </c>
     </row>
     <row r="118" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA118" s="63" t="s">
+      <c r="AA118" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="AB118" s="67" t="str">
+      <c r="AB118" s="63" t="str">
         <f>IF(AB115&gt;AB116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
